--- a/js_simulation/simulation_results_v1000.xlsx
+++ b/js_simulation/simulation_results_v1000.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,16 +510,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9834140176700991</v>
+        <v>0.9834224325798011</v>
       </c>
       <c r="D2" t="n">
-        <v>121489.4720318987</v>
+        <v>121829.664114389</v>
       </c>
       <c r="E2" t="n">
-        <v>125868.3226974954</v>
+        <v>126318.9527286087</v>
       </c>
       <c r="F2" t="n">
-        <v>121489.4720318987</v>
+        <v>121829.664114389</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -527,10 +527,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>121489.4720318987</v>
+        <v>121829.664114389</v>
       </c>
       <c r="K2" t="n">
-        <v>125868.3226974954</v>
+        <v>126318.9527286087</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -548,16 +548,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8225853631425034</v>
+        <v>0.8229241532103124</v>
       </c>
       <c r="D3" t="n">
-        <v>186233.2080458938</v>
+        <v>187893.2467576699</v>
       </c>
       <c r="E3" t="n">
-        <v>194987.4256253544</v>
+        <v>197091.1653749209</v>
       </c>
       <c r="F3" t="n">
-        <v>186233.2080458938</v>
+        <v>187893.2467576699</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -565,10 +565,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>186233.2080458938</v>
+        <v>187893.2467576699</v>
       </c>
       <c r="K3" t="n">
-        <v>194987.4256253544</v>
+        <v>197091.1653749209</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -586,16 +586,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.6473226753526866</v>
+        <v>0.6484745352049633</v>
       </c>
       <c r="D4" t="n">
-        <v>199551.9300674134</v>
+        <v>198985.6758993856</v>
       </c>
       <c r="E4" t="n">
-        <v>208883.8864548269</v>
+        <v>208547.70366944</v>
       </c>
       <c r="F4" t="n">
-        <v>199551.9300674134</v>
+        <v>198985.6758993856</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -603,10 +603,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>199551.9300674134</v>
+        <v>198985.6758993856</v>
       </c>
       <c r="K4" t="n">
-        <v>208883.8864548269</v>
+        <v>208547.70366944</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -624,16 +624,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.4166960715997488</v>
+        <v>0.419118657227098</v>
       </c>
       <c r="D5" t="n">
-        <v>209997.9724065157</v>
+        <v>211240.7588842058</v>
       </c>
       <c r="E5" t="n">
-        <v>218520.1047617262</v>
+        <v>220353.420098644</v>
       </c>
       <c r="F5" t="n">
-        <v>209997.9724065157</v>
+        <v>211240.7588842058</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -641,10 +641,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>209997.9724065157</v>
+        <v>211240.7588842058</v>
       </c>
       <c r="K5" t="n">
-        <v>218520.1047617262</v>
+        <v>220353.420098644</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -653,43 +653,39 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>STO 15%</t>
+          <t>Trad PF</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Perfect (100%)</t>
+          <t>Extreme (15%)</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9823143022526057</v>
+        <v>0.4044718914155936</v>
       </c>
       <c r="D6" t="n">
-        <v>17233.06405730591</v>
+        <v>211331.4606634509</v>
       </c>
       <c r="E6" t="n">
-        <v>21190.57548278707</v>
+        <v>219667.2774161219</v>
       </c>
       <c r="F6" t="n">
-        <v>17233.06405730591</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>211331.4606634509</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>324.2426528223837</v>
+        <v>211331.4606634509</v>
       </c>
       <c r="K6" t="n">
-        <v>363.9387099913973</v>
+        <v>219667.2774161219</v>
       </c>
       <c r="L6" t="n">
-        <v>-16908.82140448353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -700,38 +696,38 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Good (84%)</t>
+          <t>Perfect (100%)</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.81875756094707</v>
+        <v>0.9822986308332026</v>
       </c>
       <c r="D7" t="n">
-        <v>127259.3429977431</v>
+        <v>17945.48087318345</v>
       </c>
       <c r="E7" t="n">
-        <v>135722.365120862</v>
+        <v>21983.47267458183</v>
       </c>
       <c r="F7" t="n">
-        <v>127259.3429977431</v>
+        <v>17945.48087318345</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0001010327839969894</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2811.405402306351</v>
+        <v>17945.48087318345</v>
       </c>
       <c r="K7" t="n">
-        <v>3161.167102612039</v>
+        <v>21983.47267458183</v>
       </c>
       <c r="L7" t="n">
-        <v>-124447.9375954367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -742,38 +738,38 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Recession (65%)</t>
+          <t>Good (84%)</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.6416063235468267</v>
+        <v>0.8186366174467081</v>
       </c>
       <c r="D8" t="n">
-        <v>139668.8077281435</v>
+        <v>126819.6940210681</v>
       </c>
       <c r="E8" t="n">
-        <v>149294.3209779384</v>
+        <v>136490.3980208867</v>
       </c>
       <c r="F8" t="n">
-        <v>139668.8077281435</v>
+        <v>126819.6940210681</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0005745609146250596</v>
+        <v>7.707580972188864e-05</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6113.141504233423</v>
+        <v>126819.6940210681</v>
       </c>
       <c r="K8" t="n">
-        <v>6771.035511468657</v>
+        <v>136557.8393543933</v>
       </c>
       <c r="L8" t="n">
-        <v>-133555.6662239101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -784,122 +780,122 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Crisis (41%)</t>
+          <t>Recession (65%)</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4136345003583995</v>
+        <v>0.6416906222967823</v>
       </c>
       <c r="D9" t="n">
-        <v>156576.5980458368</v>
+        <v>140495.7561256773</v>
       </c>
       <c r="E9" t="n">
-        <v>167496.3367301368</v>
+        <v>149716.8516460881</v>
       </c>
       <c r="F9" t="n">
-        <v>156576.5980458368</v>
+        <v>140495.7561256773</v>
       </c>
       <c r="G9" t="n">
-        <v>0.009999999999999905</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02320890123150835</v>
+        <v>0.0006071513183129611</v>
       </c>
       <c r="I9" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>11477.75481791698</v>
+        <v>140495.7561256773</v>
       </c>
       <c r="K9" t="n">
-        <v>12798.5764749229</v>
+        <v>149883.7387885563</v>
       </c>
       <c r="L9" t="n">
-        <v>-145098.8432279198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>STO 28%</t>
+          <t>STO 15%</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Perfect (100%)</t>
+          <t>Crisis (41%)</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.982289528511714</v>
+        <v>0.413327534293121</v>
       </c>
       <c r="D10" t="n">
-        <v>17395.12467039677</v>
+        <v>156402.8011420401</v>
       </c>
       <c r="E10" t="n">
-        <v>21038.2149648252</v>
+        <v>166524.1210733571</v>
       </c>
       <c r="F10" t="n">
-        <v>17395.12467039677</v>
+        <v>156402.8011420401</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.009999999999999905</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.02749445546428887</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="J10" t="n">
-        <v>323.2820483378213</v>
+        <v>156507.8011420401</v>
       </c>
       <c r="K10" t="n">
-        <v>365.8460643810284</v>
+        <v>167021.1796536501</v>
       </c>
       <c r="L10" t="n">
-        <v>-17071.84262205895</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>STO 28%</t>
+          <t>STO 15%</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Good (84%)</t>
+          <t>Extreme (15%)</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8169322596973189</v>
+        <v>0.3967631143114563</v>
       </c>
       <c r="D11" t="n">
-        <v>111465.1348523069</v>
+        <v>159597.0649230403</v>
       </c>
       <c r="E11" t="n">
-        <v>120002.435093471</v>
+        <v>168045.213339946</v>
       </c>
       <c r="F11" t="n">
-        <v>111465.1348523069</v>
+        <v>159597.0649230403</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.009999999999999905</v>
       </c>
       <c r="H11" t="n">
-        <v>4.535532507098437e-05</v>
+        <v>0.02485180089578153</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="J11" t="n">
-        <v>2930.038027836275</v>
+        <v>159702.0649230403</v>
       </c>
       <c r="K11" t="n">
-        <v>3257.968593530237</v>
+        <v>168454.7530164294</v>
       </c>
       <c r="L11" t="n">
-        <v>-108535.0968244706</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12">
@@ -910,38 +906,38 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Recession (65%)</t>
+          <t>Perfect (100%)</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6390038704741831</v>
+        <v>0.9823196459810106</v>
       </c>
       <c r="D12" t="n">
-        <v>125142.6105336513</v>
+        <v>17154.89126112844</v>
       </c>
       <c r="E12" t="n">
-        <v>134675.7722791967</v>
+        <v>20601.66407879172</v>
       </c>
       <c r="F12" t="n">
-        <v>125142.6105336513</v>
+        <v>17154.89126112844</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0005201782828060917</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6315.191813822651</v>
+        <v>17154.89126112844</v>
       </c>
       <c r="K12" t="n">
-        <v>6957.46729829272</v>
+        <v>20601.66407879172</v>
       </c>
       <c r="L12" t="n">
-        <v>-118827.4187198286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -952,164 +948,164 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Crisis (41%)</t>
+          <t>Good (84%)</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.4132660348296509</v>
+        <v>0.8171811642575961</v>
       </c>
       <c r="D13" t="n">
-        <v>143094.331373237</v>
+        <v>111529.9940324439</v>
       </c>
       <c r="E13" t="n">
-        <v>152803.629663798</v>
+        <v>120129.3880140484</v>
       </c>
       <c r="F13" t="n">
-        <v>143094.331373237</v>
+        <v>111529.9940324439</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00999999999999995</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0234222611596614</v>
+        <v>5.912561875968674e-05</v>
       </c>
       <c r="I13" t="n">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11574.67257200867</v>
+        <v>111529.9940324439</v>
       </c>
       <c r="K13" t="n">
-        <v>12617.30770145806</v>
+        <v>120217.1805994794</v>
       </c>
       <c r="L13" t="n">
-        <v>-131519.6588012284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>STO 40%</t>
+          <t>STO 28%</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Perfect (100%)</t>
+          <t>Recession (65%)</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9823121013038794</v>
+        <v>0.6396710372473863</v>
       </c>
       <c r="D14" t="n">
-        <v>16948.71173573424</v>
+        <v>125263.9032285218</v>
       </c>
       <c r="E14" t="n">
-        <v>20564.07821330571</v>
+        <v>135025.4596369151</v>
       </c>
       <c r="F14" t="n">
-        <v>16948.71173573424</v>
+        <v>125263.9032285218</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.000555384797919084</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>318.4910569569728</v>
+        <v>125263.9032285218</v>
       </c>
       <c r="K14" t="n">
-        <v>356.4227330958275</v>
+        <v>135269.5300862248</v>
       </c>
       <c r="L14" t="n">
-        <v>-16630.22067877727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>STO 40%</t>
+          <t>STO 28%</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Good (84%)</t>
+          <t>Crisis (41%)</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.8155323903846202</v>
+        <v>0.4119103335077707</v>
       </c>
       <c r="D15" t="n">
-        <v>98844.58605678441</v>
+        <v>143370.4323154436</v>
       </c>
       <c r="E15" t="n">
-        <v>107130.037330868</v>
+        <v>153551.0916585604</v>
       </c>
       <c r="F15" t="n">
-        <v>98844.58605678441</v>
+        <v>143370.4323154436</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.00999999999999995</v>
       </c>
       <c r="H15" t="n">
-        <v>5.003315759281891e-05</v>
+        <v>0.02489130257355281</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="J15" t="n">
-        <v>3058.693908051168</v>
+        <v>143566.4323154436</v>
       </c>
       <c r="K15" t="n">
-        <v>3368.927032756765</v>
+        <v>154280.4359803746</v>
       </c>
       <c r="L15" t="n">
-        <v>-95785.89214873324</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>STO 40%</t>
+          <t>STO 28%</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Recession (65%)</t>
+          <t>Extreme (15%)</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.6368769188635667</v>
+        <v>0.3939539599978985</v>
       </c>
       <c r="D16" t="n">
-        <v>115089.4501373783</v>
+        <v>145775.4276440667</v>
       </c>
       <c r="E16" t="n">
-        <v>124018.9028566052</v>
+        <v>154961.0768302313</v>
       </c>
       <c r="F16" t="n">
-        <v>115089.4501373783</v>
+        <v>145775.4276440667</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.00999999999999995</v>
       </c>
       <c r="H16" t="n">
-        <v>0.000422501511520011</v>
+        <v>0.02332944757897115</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="J16" t="n">
-        <v>6530.712254235763</v>
+        <v>145971.4276440667</v>
       </c>
       <c r="K16" t="n">
-        <v>7185.912309762005</v>
+        <v>155692.106488982</v>
       </c>
       <c r="L16" t="n">
-        <v>-108558.7378831425</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17">
@@ -1120,38 +1116,206 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Perfect (100%)</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9823392407637377</v>
+      </c>
+      <c r="D17" t="n">
+        <v>17438.78386417262</v>
+      </c>
+      <c r="E17" t="n">
+        <v>21352.25180847063</v>
+      </c>
+      <c r="F17" t="n">
+        <v>17438.78386417262</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>17438.78386417262</v>
+      </c>
+      <c r="K17" t="n">
+        <v>21352.25180847063</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>STO 40%</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Good (84%)</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8154540468899483</v>
+      </c>
+      <c r="D18" t="n">
+        <v>97988.6364167962</v>
+      </c>
+      <c r="E18" t="n">
+        <v>107144.728420625</v>
+      </c>
+      <c r="F18" t="n">
+        <v>97988.6364167962</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5.212294998329787e-05</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>97988.6364167962</v>
+      </c>
+      <c r="K18" t="n">
+        <v>107233.7188230355</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>STO 40%</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.637036077665824</v>
+      </c>
+      <c r="D19" t="n">
+        <v>113193.7073697877</v>
+      </c>
+      <c r="E19" t="n">
+        <v>123025.4694082533</v>
+      </c>
+      <c r="F19" t="n">
+        <v>113193.7073697877</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0004304157314349371</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>113193.7073697877</v>
+      </c>
+      <c r="K19" t="n">
+        <v>123325.2614599991</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>STO 40%</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>Crisis (41%)</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>0.4094635588208302</v>
-      </c>
-      <c r="D17" t="n">
-        <v>131034.2677424282</v>
-      </c>
-      <c r="E17" t="n">
-        <v>141460.4748809713</v>
-      </c>
-      <c r="F17" t="n">
-        <v>131034.2677424282</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.009369397213637195</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.02533414121601242</v>
-      </c>
-      <c r="I17" t="n">
-        <v>262.3431219818424</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11643.08994277793</v>
-      </c>
-      <c r="K17" t="n">
-        <v>12674.35080814071</v>
-      </c>
-      <c r="L17" t="n">
-        <v>-119391.1777996503</v>
+      <c r="C20" t="n">
+        <v>0.4112745638097692</v>
+      </c>
+      <c r="D20" t="n">
+        <v>131654.3383120974</v>
+      </c>
+      <c r="E20" t="n">
+        <v>142258.0594928669</v>
+      </c>
+      <c r="F20" t="n">
+        <v>131654.3383120974</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.006437157214779519</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.02494204968688549</v>
+      </c>
+      <c r="I20" t="n">
+        <v>180.2404020138272</v>
+      </c>
+      <c r="J20" t="n">
+        <v>131834.5787141112</v>
+      </c>
+      <c r="K20" t="n">
+        <v>142956.4368840997</v>
+      </c>
+      <c r="L20" t="n">
+        <v>180.2404020138272</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>STO 40%</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.3921787635140916</v>
+      </c>
+      <c r="D21" t="n">
+        <v>135250.7601474534</v>
+      </c>
+      <c r="E21" t="n">
+        <v>145073.068370846</v>
+      </c>
+      <c r="F21" t="n">
+        <v>135250.7601474534</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.009999999999999966</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.02361353547521183</v>
+      </c>
+      <c r="I21" t="n">
+        <v>280</v>
+      </c>
+      <c r="J21" t="n">
+        <v>135530.7601474534</v>
+      </c>
+      <c r="K21" t="n">
+        <v>146081.5939024307</v>
+      </c>
+      <c r="L21" t="n">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -1165,7 +1329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1242,19 +1406,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>121489.4720318987</v>
+        <v>121829.664114389</v>
       </c>
       <c r="E2" t="n">
-        <v>125868.3226974954</v>
+        <v>126318.9527286087</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>121489.4720318987</v>
+        <v>121829.664114389</v>
       </c>
       <c r="H2" t="n">
-        <v>125868.3226974954</v>
+        <v>126318.9527286087</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1280,19 +1444,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>186233.2080458938</v>
+        <v>187893.2467576699</v>
       </c>
       <c r="E3" t="n">
-        <v>194987.4256253544</v>
+        <v>197091.1653749209</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>186233.2080458938</v>
+        <v>187893.2467576699</v>
       </c>
       <c r="H3" t="n">
-        <v>194987.4256253544</v>
+        <v>197091.1653749209</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1318,19 +1482,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>199551.9300674134</v>
+        <v>198985.6758993856</v>
       </c>
       <c r="E4" t="n">
-        <v>208883.8864548269</v>
+        <v>208547.70366944</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>199551.9300674134</v>
+        <v>198985.6758993856</v>
       </c>
       <c r="H4" t="n">
-        <v>208883.8864548269</v>
+        <v>208547.70366944</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1356,19 +1520,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>209997.9724065157</v>
+        <v>211240.7588842058</v>
       </c>
       <c r="E5" t="n">
-        <v>218520.1047617262</v>
+        <v>220353.420098644</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>209997.9724065157</v>
+        <v>211240.7588842058</v>
       </c>
       <c r="H5" t="n">
-        <v>218520.1047617262</v>
+        <v>220353.420098644</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1380,45 +1544,45 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>STO 15%_Perfect</t>
+          <t>Trad PF_Extreme</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>STO 15%</t>
+          <t>Trad PF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Perfect (100%)</t>
+          <t>Extreme (15%)</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>17233.06405730591</v>
+        <v>211331.4606634509</v>
       </c>
       <c r="E6" t="n">
-        <v>21190.57548278707</v>
+        <v>219667.2774161219</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>324.2426528223837</v>
+        <v>211331.4606634509</v>
       </c>
       <c r="H6" t="n">
-        <v>363.9387099913973</v>
+        <v>219667.2774161219</v>
       </c>
       <c r="I6" t="n">
-        <v>-16908.82140448353</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-98.11848518786813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>STO 15%_Good</t>
+          <t>STO 15%_Perfect</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1428,35 +1592,35 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Good (84%)</t>
+          <t>Perfect (100%)</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>127259.3429977431</v>
+        <v>17945.48087318345</v>
       </c>
       <c r="E7" t="n">
-        <v>135722.365120862</v>
+        <v>21983.47267458183</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2811.405402306351</v>
+        <v>327.9697713389484</v>
       </c>
       <c r="H7" t="n">
-        <v>3161.167102612039</v>
+        <v>363.3328414879439</v>
       </c>
       <c r="I7" t="n">
-        <v>-124447.9375954367</v>
+        <v>-17617.5111018445</v>
       </c>
       <c r="J7" t="n">
-        <v>-97.79080628888975</v>
+        <v>-98.17241023711411</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>STO 15%_Recession</t>
+          <t>STO 15%_Good</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1466,35 +1630,35 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recession (65%)</t>
+          <t>Good (84%)</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>139668.8077281435</v>
+        <v>126819.6940210681</v>
       </c>
       <c r="E8" t="n">
-        <v>149294.3209779384</v>
+        <v>136490.3980208867</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>6113.141504233423</v>
+        <v>2759.67069166779</v>
       </c>
       <c r="H8" t="n">
-        <v>6771.035511468657</v>
+        <v>3111.757681282013</v>
       </c>
       <c r="I8" t="n">
-        <v>-133555.6662239101</v>
+        <v>-124060.0233294003</v>
       </c>
       <c r="J8" t="n">
-        <v>-95.62311613905069</v>
+        <v>-97.82394153134501</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>STO 15%_Crisis</t>
+          <t>STO 15%_Recession</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1504,111 +1668,111 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Crisis (41%)</t>
+          <t>Recession (65%)</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>156576.5980458368</v>
+        <v>140495.7561256773</v>
       </c>
       <c r="E9" t="n">
-        <v>167496.3367301368</v>
+        <v>149716.8516460881</v>
       </c>
       <c r="F9" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>11477.75481791698</v>
+        <v>6124.744117516394</v>
       </c>
       <c r="H9" t="n">
-        <v>12798.5764749229</v>
+        <v>6816.358394385369</v>
       </c>
       <c r="I9" t="n">
-        <v>-145098.8432279198</v>
+        <v>-134371.012008161</v>
       </c>
       <c r="J9" t="n">
-        <v>-92.66955920542038</v>
+        <v>-95.64061984047572</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>STO 28%_Perfect</t>
+          <t>STO 15%_Crisis</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>STO 28%</t>
+          <t>STO 15%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Perfect (100%)</t>
+          <t>Crisis (41%)</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>17395.12467039677</v>
+        <v>156402.8011420401</v>
       </c>
       <c r="E10" t="n">
-        <v>21038.2149648252</v>
+        <v>166524.1210733571</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="G10" t="n">
-        <v>323.2820483378213</v>
+        <v>11268.25091345382</v>
       </c>
       <c r="H10" t="n">
-        <v>365.8460643810284</v>
+        <v>12862.59784518622</v>
       </c>
       <c r="I10" t="n">
-        <v>-17071.84262205895</v>
+        <v>-145134.5502285863</v>
       </c>
       <c r="J10" t="n">
-        <v>-98.14153646804277</v>
+        <v>-92.7953650246837</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>STO 28%_Good</t>
+          <t>STO 15%_Extreme</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>STO 28%</t>
+          <t>STO 15%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Good (84%)</t>
+          <t>Extreme (15%)</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>111465.1348523069</v>
+        <v>159597.0649230403</v>
       </c>
       <c r="E11" t="n">
-        <v>120002.435093471</v>
+        <v>168045.213339946</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="G11" t="n">
-        <v>2930.038027836275</v>
+        <v>11865.25870367696</v>
       </c>
       <c r="H11" t="n">
-        <v>3257.968593530237</v>
+        <v>13435.35185050296</v>
       </c>
       <c r="I11" t="n">
-        <v>-108535.0968244706</v>
+        <v>-147731.8062193634</v>
       </c>
       <c r="J11" t="n">
-        <v>-97.37134124341335</v>
+        <v>-92.56549065648636</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>STO 28%_Recession</t>
+          <t>STO 28%_Perfect</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1618,35 +1782,35 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Recession (65%)</t>
+          <t>Perfect (100%)</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>125142.6105336513</v>
+        <v>17154.89126112844</v>
       </c>
       <c r="E12" t="n">
-        <v>134675.7722791967</v>
+        <v>20601.66407879172</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>6315.191813822651</v>
+        <v>321.3932392963318</v>
       </c>
       <c r="H12" t="n">
-        <v>6957.46729829272</v>
+        <v>358.8113688117585</v>
       </c>
       <c r="I12" t="n">
-        <v>-118827.4187198286</v>
+        <v>-16833.4980218321</v>
       </c>
       <c r="J12" t="n">
-        <v>-94.9536039028653</v>
+        <v>-98.12652126787546</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>STO 28%_Crisis</t>
+          <t>STO 28%_Good</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1656,181 +1820,333 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Crisis (41%)</t>
+          <t>Good (84%)</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>143094.331373237</v>
+        <v>111529.9940324439</v>
       </c>
       <c r="E13" t="n">
-        <v>152803.629663798</v>
+        <v>120129.3880140484</v>
       </c>
       <c r="F13" t="n">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>11574.67257200867</v>
+        <v>2927.399515659442</v>
       </c>
       <c r="H13" t="n">
-        <v>12617.30770145806</v>
+        <v>3248.786017425488</v>
       </c>
       <c r="I13" t="n">
-        <v>-131519.6588012284</v>
+        <v>-108602.5945167844</v>
       </c>
       <c r="J13" t="n">
-        <v>-91.91115926051738</v>
+        <v>-97.3752356565106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>STO 40%_Perfect</t>
+          <t>STO 28%_Recession</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>STO 40%</t>
+          <t>STO 28%</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Perfect (100%)</t>
+          <t>Recession (65%)</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>16948.71173573424</v>
+        <v>125263.9032285218</v>
       </c>
       <c r="E14" t="n">
-        <v>20564.07821330571</v>
+        <v>135025.4596369151</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>318.4910569569728</v>
+        <v>6360.415197846615</v>
       </c>
       <c r="H14" t="n">
-        <v>356.4227330958275</v>
+        <v>6962.65777981692</v>
       </c>
       <c r="I14" t="n">
-        <v>-16630.22067877727</v>
+        <v>-118903.4880306752</v>
       </c>
       <c r="J14" t="n">
-        <v>-98.12085389188917</v>
+        <v>-94.92238782768635</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>STO 40%_Good</t>
+          <t>STO 28%_Crisis</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>STO 40%</t>
+          <t>STO 28%</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Good (84%)</t>
+          <t>Crisis (41%)</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>98844.58605678441</v>
+        <v>143370.4323154436</v>
       </c>
       <c r="E15" t="n">
-        <v>107130.037330868</v>
+        <v>153551.0916585604</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="G15" t="n">
-        <v>3058.693908051168</v>
+        <v>11551.62508394768</v>
       </c>
       <c r="H15" t="n">
-        <v>3368.927032756765</v>
+        <v>12769.5051835566</v>
       </c>
       <c r="I15" t="n">
-        <v>-95785.89214873324</v>
+        <v>-131818.8072314959</v>
       </c>
       <c r="J15" t="n">
-        <v>-96.90555241306387</v>
+        <v>-91.94281212842283</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>STO 40%_Recession</t>
+          <t>STO 28%_Extreme</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>STO 40%</t>
+          <t>STO 28%</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Recession (65%)</t>
+          <t>Extreme (15%)</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>115089.4501373783</v>
+        <v>145775.4276440667</v>
       </c>
       <c r="E16" t="n">
-        <v>124018.9028566052</v>
+        <v>154961.0768302313</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="G16" t="n">
-        <v>6530.712254235763</v>
+        <v>11897.42073663007</v>
       </c>
       <c r="H16" t="n">
-        <v>7185.912309762005</v>
+        <v>13149.96385928181</v>
       </c>
       <c r="I16" t="n">
-        <v>-108558.7378831425</v>
+        <v>-133878.0069074366</v>
       </c>
       <c r="J16" t="n">
-        <v>-94.3255335337511</v>
+        <v>-91.83852798176694</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>STO 40%_Perfect</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>STO 40%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Perfect (100%)</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>17438.78386417262</v>
+      </c>
+      <c r="E17" t="n">
+        <v>21352.25180847063</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>319.8245743840517</v>
+      </c>
+      <c r="H17" t="n">
+        <v>361.3372886141601</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-17118.95928978857</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-98.16601560707957</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>STO 40%_Good</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>STO 40%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Good (84%)</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>97988.6364167962</v>
+      </c>
+      <c r="E18" t="n">
+        <v>107144.728420625</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3076.249359307586</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3420.733179624282</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-94912.38705748861</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-96.86060601331086</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>STO 40%_Recession</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>STO 40%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>113193.7073697877</v>
+      </c>
+      <c r="E19" t="n">
+        <v>123025.4694082533</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6435.256177637727</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7052.296749251489</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-106758.45119215</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-94.31482868865257</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>STO 40%_Crisis</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>STO 40%</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Crisis (41%)</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>131034.2677424282</v>
-      </c>
-      <c r="E17" t="n">
-        <v>141460.4748809713</v>
-      </c>
-      <c r="F17" t="n">
-        <v>262.3431219818424</v>
-      </c>
-      <c r="G17" t="n">
-        <v>11643.08994277793</v>
-      </c>
-      <c r="H17" t="n">
-        <v>12674.35080814071</v>
-      </c>
-      <c r="I17" t="n">
-        <v>-119391.1777996503</v>
-      </c>
-      <c r="J17" t="n">
-        <v>-91.11446941065481</v>
+      <c r="D20" t="n">
+        <v>131654.3383120974</v>
+      </c>
+      <c r="E20" t="n">
+        <v>142258.0594928669</v>
+      </c>
+      <c r="F20" t="n">
+        <v>180.2404020138272</v>
+      </c>
+      <c r="G20" t="n">
+        <v>11578.83426462438</v>
+      </c>
+      <c r="H20" t="n">
+        <v>12781.13345433567</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-120075.504047473</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-91.20512516862466</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>STO 40%_Extreme</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>STO 40%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>135250.7601474534</v>
+      </c>
+      <c r="E21" t="n">
+        <v>145073.068370846</v>
+      </c>
+      <c r="F21" t="n">
+        <v>280</v>
+      </c>
+      <c r="G21" t="n">
+        <v>11921.55368899196</v>
+      </c>
+      <c r="H21" t="n">
+        <v>13063.49037561235</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-123329.2064584615</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-91.18559209870996</v>
       </c>
     </row>
   </sheetData>
@@ -1844,7 +2160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1896,16 +2212,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>121489.4720318987</v>
+        <v>121829.664114389</v>
       </c>
       <c r="D2" t="n">
-        <v>17233.06405730591</v>
+        <v>17945.48087318345</v>
       </c>
       <c r="E2" t="n">
-        <v>104256.4079745928</v>
+        <v>103884.1832412056</v>
       </c>
       <c r="F2" t="n">
-        <v>85.81517906935909</v>
+        <v>85.27002351715099</v>
       </c>
     </row>
     <row r="3">
@@ -1920,16 +2236,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>121489.4720318987</v>
+        <v>121829.664114389</v>
       </c>
       <c r="D3" t="n">
-        <v>17395.12467039677</v>
+        <v>17154.89126112844</v>
       </c>
       <c r="E3" t="n">
-        <v>104094.3473615019</v>
+        <v>104674.7728532606</v>
       </c>
       <c r="F3" t="n">
-        <v>85.68178429005812</v>
+        <v>85.91895382308429</v>
       </c>
     </row>
     <row r="4">
@@ -1944,16 +2260,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>121489.4720318987</v>
+        <v>121829.664114389</v>
       </c>
       <c r="D4" t="n">
-        <v>16948.71173573424</v>
+        <v>17438.78386417262</v>
       </c>
       <c r="E4" t="n">
-        <v>104540.7602961645</v>
+        <v>104390.8802502164</v>
       </c>
       <c r="F4" t="n">
-        <v>86.04923418279066</v>
+        <v>85.6859296207212</v>
       </c>
     </row>
     <row r="5">
@@ -1968,16 +2284,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>186233.2080458938</v>
+        <v>187893.2467576699</v>
       </c>
       <c r="D5" t="n">
-        <v>127259.3429977431</v>
+        <v>126819.6940210681</v>
       </c>
       <c r="E5" t="n">
-        <v>58973.86504815078</v>
+        <v>61073.55273660182</v>
       </c>
       <c r="F5" t="n">
-        <v>31.66667516870446</v>
+        <v>32.50438948206038</v>
       </c>
     </row>
     <row r="6">
@@ -1992,16 +2308,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>186233.2080458938</v>
+        <v>187893.2467576699</v>
       </c>
       <c r="D6" t="n">
-        <v>111465.1348523069</v>
+        <v>111529.9940324439</v>
       </c>
       <c r="E6" t="n">
-        <v>74768.07319358693</v>
+        <v>76363.25272522605</v>
       </c>
       <c r="F6" t="n">
-        <v>40.14755154470714</v>
+        <v>40.64182935947316</v>
       </c>
     </row>
     <row r="7">
@@ -2016,16 +2332,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>186233.2080458938</v>
+        <v>187893.2467576699</v>
       </c>
       <c r="D7" t="n">
-        <v>98844.58605678441</v>
+        <v>97988.6364167962</v>
       </c>
       <c r="E7" t="n">
-        <v>87388.62198910944</v>
+        <v>89904.61034087373</v>
       </c>
       <c r="F7" t="n">
-        <v>46.92429610489987</v>
+        <v>47.84877151908801</v>
       </c>
     </row>
     <row r="8">
@@ -2040,16 +2356,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>199551.9300674134</v>
+        <v>198985.6758993856</v>
       </c>
       <c r="D8" t="n">
-        <v>139668.8077281435</v>
+        <v>140495.7561256773</v>
       </c>
       <c r="E8" t="n">
-        <v>59883.12233926993</v>
+        <v>58489.91977370824</v>
       </c>
       <c r="F8" t="n">
-        <v>30.00879135523269</v>
+        <v>29.39403527884232</v>
       </c>
     </row>
     <row r="9">
@@ -2064,16 +2380,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>199551.9300674134</v>
+        <v>198985.6758993856</v>
       </c>
       <c r="D9" t="n">
-        <v>125142.6105336513</v>
+        <v>125263.9032285218</v>
       </c>
       <c r="E9" t="n">
-        <v>74409.31953376214</v>
+        <v>73721.77267086379</v>
       </c>
       <c r="F9" t="n">
-        <v>37.28819836952963</v>
+        <v>37.04878370649162</v>
       </c>
     </row>
     <row r="10">
@@ -2088,16 +2404,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>199551.9300674134</v>
+        <v>198985.6758993856</v>
       </c>
       <c r="D10" t="n">
-        <v>115089.4501373783</v>
+        <v>113193.7073697877</v>
       </c>
       <c r="E10" t="n">
-        <v>84462.47993003512</v>
+        <v>85791.96852959789</v>
       </c>
       <c r="F10" t="n">
-        <v>42.32606515081146</v>
+        <v>43.1146453843127</v>
       </c>
     </row>
     <row r="11">
@@ -2112,16 +2428,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>209997.9724065157</v>
+        <v>211240.7588842058</v>
       </c>
       <c r="D11" t="n">
-        <v>156576.5980458368</v>
+        <v>156402.8011420401</v>
       </c>
       <c r="E11" t="n">
-        <v>53421.37436067889</v>
+        <v>54837.95774216572</v>
       </c>
       <c r="F11" t="n">
-        <v>25.43899531432874</v>
+        <v>25.95993217967267</v>
       </c>
     </row>
     <row r="12">
@@ -2136,16 +2452,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>209997.9724065157</v>
+        <v>211240.7588842058</v>
       </c>
       <c r="D12" t="n">
-        <v>143094.331373237</v>
+        <v>143370.4323154436</v>
       </c>
       <c r="E12" t="n">
-        <v>66903.64103327869</v>
+        <v>67870.32656876228</v>
       </c>
       <c r="F12" t="n">
-        <v>31.859184289535</v>
+        <v>32.12937073662295</v>
       </c>
     </row>
     <row r="13">
@@ -2160,16 +2476,88 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>209997.9724065157</v>
+        <v>211240.7588842058</v>
       </c>
       <c r="D13" t="n">
-        <v>131034.2677424282</v>
+        <v>131654.3383120974</v>
       </c>
       <c r="E13" t="n">
-        <v>78963.70466408746</v>
+        <v>79586.42057210841</v>
       </c>
       <c r="F13" t="n">
-        <v>37.60212718208007</v>
+        <v>37.67569336168437</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>STO 15%</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>211331.4606634509</v>
+      </c>
+      <c r="D14" t="n">
+        <v>159597.0649230403</v>
+      </c>
+      <c r="E14" t="n">
+        <v>51734.3957404106</v>
+      </c>
+      <c r="F14" t="n">
+        <v>24.48021490884338</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>STO 28%</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>211331.4606634509</v>
+      </c>
+      <c r="D15" t="n">
+        <v>145775.4276440667</v>
+      </c>
+      <c r="E15" t="n">
+        <v>65556.03301938419</v>
+      </c>
+      <c r="F15" t="n">
+        <v>31.02047977787052</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>STO 40%</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>211331.4606634509</v>
+      </c>
+      <c r="D16" t="n">
+        <v>135250.7601474534</v>
+      </c>
+      <c r="E16" t="n">
+        <v>76080.70051599748</v>
+      </c>
+      <c r="F16" t="n">
+        <v>36.0006504839132</v>
       </c>
     </row>
   </sheetData>
@@ -2183,7 +2571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2250,7 +2638,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9823143022526057</v>
+        <v>0.9822986308332026</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2282,19 +2670,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.81875756094707</v>
+        <v>0.8186366174467081</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0001010327839969894</v>
+        <v>7.707580972188864e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001010327839969894</v>
+        <v>7.707580972188864e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0152</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="4">
@@ -2314,19 +2702,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6416063235468267</v>
+        <v>0.6416906222967823</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0005745609146250596</v>
+        <v>0.0006071513183129611</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0005745609146250596</v>
+        <v>0.0006071513183129611</v>
       </c>
       <c r="H4" t="n">
-        <v>0.041</v>
+        <v>0.0382</v>
       </c>
     </row>
     <row r="5">
@@ -2346,57 +2734,57 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.4136345003583995</v>
+        <v>0.413327534293121</v>
       </c>
       <c r="E5" t="n">
         <v>0.009999999999999905</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02320890123150835</v>
+        <v>0.02749445546428887</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01320890123150845</v>
+        <v>0.01749445546428896</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06419999999999999</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>STO 28%_Perfect</t>
+          <t>STO 15%_Extreme</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>STO 28%</t>
+          <t>STO 15%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Perfect (100%)</t>
+          <t>Extreme (15%)</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.982289528511714</v>
+        <v>0.3967631143114563</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.009999999999999905</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.02485180089578153</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.01485180089578163</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.07920000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>STO 28%_Good</t>
+          <t>STO 28%_Perfect</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2406,29 +2794,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Good (84%)</t>
+          <t>Perfect (100%)</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.8169322596973189</v>
+        <v>0.9823196459810106</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>4.535532507098437e-05</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4.535532507098437e-05</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>STO 28%_Recession</t>
+          <t>STO 28%_Good</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2438,29 +2826,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recession (65%)</t>
+          <t>Good (84%)</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.6390038704741831</v>
+        <v>0.8171811642575961</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0005201782828060917</v>
+        <v>5.912561875968674e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0005201782828060917</v>
+        <v>5.912561875968674e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0442</v>
+        <v>0.0132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>STO 28%_Crisis</t>
+          <t>STO 28%_Recession</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2470,93 +2858,93 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Crisis (41%)</t>
+          <t>Recession (65%)</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.4132660348296509</v>
+        <v>0.6396710372473863</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00999999999999995</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0234222611596614</v>
+        <v>0.000555384797919084</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01342226115966145</v>
+        <v>0.000555384797919084</v>
       </c>
       <c r="H9" t="n">
-        <v>0.064</v>
+        <v>0.0446</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>STO 40%_Perfect</t>
+          <t>STO 28%_Crisis</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>STO 40%</t>
+          <t>STO 28%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Perfect (100%)</t>
+          <t>Crisis (41%)</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9823121013038794</v>
+        <v>0.4119103335077707</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.00999999999999995</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.02489130257355281</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.01489130257355286</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.0608</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>STO 40%_Good</t>
+          <t>STO 28%_Extreme</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>STO 40%</t>
+          <t>STO 28%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Good (84%)</t>
+          <t>Extreme (15%)</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8155323903846202</v>
+        <v>0.3939539599978985</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.00999999999999995</v>
       </c>
       <c r="F11" t="n">
-        <v>5.003315759281891e-05</v>
+        <v>0.02332944757897115</v>
       </c>
       <c r="G11" t="n">
-        <v>5.003315759281891e-05</v>
+        <v>0.0133294475789712</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0156</v>
+        <v>0.07779999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>STO 40%_Recession</t>
+          <t>STO 40%_Perfect</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2566,55 +2954,151 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Recession (65%)</t>
+          <t>Perfect (100%)</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.6368769188635667</v>
+        <v>0.9823392407637377</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.000422501511520011</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.000422501511520011</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>STO 40%_Good</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>STO 40%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Good (84%)</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8154540468899483</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5.212294998329787e-05</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5.212294998329787e-05</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0164</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>STO 40%_Recession</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>STO 40%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.637036077665824</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0004304157314349371</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0004304157314349371</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0402</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>STO 40%_Crisis</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>STO 40%</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Crisis (41%)</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>0.4094635588208302</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.009369397213637195</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.02533414121601242</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.01596474400237523</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.0636</v>
+      <c r="D15" t="n">
+        <v>0.4112745638097692</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.006437157214779519</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.02494204968688549</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.01850489247210597</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0602</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>STO 40%_Extreme</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>STO 40%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.3921787635140916</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.009999999999999966</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.02361353547521183</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.01361353547521187</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.07580000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/js_simulation/simulation_results_v1000.xlsx
+++ b/js_simulation/simulation_results_v1000.xlsx
@@ -510,16 +510,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9834224325798011</v>
+        <v>0.9837461026580214</v>
       </c>
       <c r="D2" t="n">
-        <v>121829.664114389</v>
+        <v>168196.9650074969</v>
       </c>
       <c r="E2" t="n">
-        <v>126318.9527286087</v>
+        <v>172401.0568401012</v>
       </c>
       <c r="F2" t="n">
-        <v>121829.664114389</v>
+        <v>168196.9650074969</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -527,10 +527,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>121829.664114389</v>
+        <v>168196.9650074969</v>
       </c>
       <c r="K2" t="n">
-        <v>126318.9527286087</v>
+        <v>172401.0568401012</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -548,16 +548,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8229241532103124</v>
+        <v>0.8246489788919618</v>
       </c>
       <c r="D3" t="n">
-        <v>187893.2467576699</v>
+        <v>233901.5779158411</v>
       </c>
       <c r="E3" t="n">
-        <v>197091.1653749209</v>
+        <v>242897.6687006156</v>
       </c>
       <c r="F3" t="n">
-        <v>187893.2467576699</v>
+        <v>233901.5779158411</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -565,10 +565,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>187893.2467576699</v>
+        <v>233901.5779158411</v>
       </c>
       <c r="K3" t="n">
-        <v>197091.1653749209</v>
+        <v>242897.6687006156</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -586,16 +586,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.6484745352049633</v>
+        <v>0.6500760746238917</v>
       </c>
       <c r="D4" t="n">
-        <v>198985.6758993856</v>
+        <v>245171.0488656423</v>
       </c>
       <c r="E4" t="n">
-        <v>208547.70366944</v>
+        <v>254223.9309958674</v>
       </c>
       <c r="F4" t="n">
-        <v>198985.6758993856</v>
+        <v>245171.0488656423</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -603,10 +603,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>198985.6758993856</v>
+        <v>245171.0488656423</v>
       </c>
       <c r="K4" t="n">
-        <v>208547.70366944</v>
+        <v>254223.9309958674</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -624,16 +624,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.419118657227098</v>
+        <v>0.420625092459201</v>
       </c>
       <c r="D5" t="n">
-        <v>211240.7588842058</v>
+        <v>256999.9993728732</v>
       </c>
       <c r="E5" t="n">
-        <v>220353.420098644</v>
+        <v>265842.3453517665</v>
       </c>
       <c r="F5" t="n">
-        <v>211240.7588842058</v>
+        <v>256999.9993728732</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -641,10 +641,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>211240.7588842058</v>
+        <v>256999.9993728732</v>
       </c>
       <c r="K5" t="n">
-        <v>220353.420098644</v>
+        <v>265842.3453517665</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -662,16 +662,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4044718914155936</v>
+        <v>0.4083177865715741</v>
       </c>
       <c r="D6" t="n">
-        <v>211331.4606634509</v>
+        <v>257109.3957698636</v>
       </c>
       <c r="E6" t="n">
-        <v>219667.2774161219</v>
+        <v>265011.56770623</v>
       </c>
       <c r="F6" t="n">
-        <v>211331.4606634509</v>
+        <v>257109.3957698636</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>211331.4606634509</v>
+        <v>257109.3957698636</v>
       </c>
       <c r="K6" t="n">
-        <v>219667.2774161219</v>
+        <v>265011.56770623</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -700,31 +700,31 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9822986308332026</v>
+        <v>0.9826719646030546</v>
       </c>
       <c r="D7" t="n">
-        <v>17945.48087318345</v>
+        <v>49647.02010339057</v>
       </c>
       <c r="E7" t="n">
-        <v>21983.47267458183</v>
+        <v>54320.18212046334</v>
       </c>
       <c r="F7" t="n">
-        <v>17945.48087318345</v>
+        <v>49647.02010339057</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2.083575882791833e-07</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17945.48087318345</v>
+        <v>49647.02010339057</v>
       </c>
       <c r="K7" t="n">
-        <v>21983.47267458183</v>
+        <v>54327.60485954578</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -742,31 +742,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8186366174467081</v>
+        <v>0.8206754309837626</v>
       </c>
       <c r="D8" t="n">
-        <v>126819.6940210681</v>
+        <v>172015.5431594522</v>
       </c>
       <c r="E8" t="n">
-        <v>136490.3980208867</v>
+        <v>181065.9335056128</v>
       </c>
       <c r="F8" t="n">
-        <v>126819.6940210681</v>
+        <v>172015.5431594522</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>7.707580972188864e-05</v>
+        <v>0.0008657109545889521</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>126819.6940210681</v>
+        <v>172015.5431594522</v>
       </c>
       <c r="K8" t="n">
-        <v>136557.8393543933</v>
+        <v>181337.6599616237</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -784,34 +784,34 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.6416906222967823</v>
+        <v>0.646859056449052</v>
       </c>
       <c r="D9" t="n">
-        <v>140495.7561256773</v>
+        <v>184698.1851473628</v>
       </c>
       <c r="E9" t="n">
-        <v>149716.8516460881</v>
+        <v>193619.9572859741</v>
       </c>
       <c r="F9" t="n">
-        <v>140495.7561256773</v>
+        <v>184698.1851473628</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.003574106644893613</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0006071513183129611</v>
+        <v>0.0285730738930953</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>50.93101968973433</v>
       </c>
       <c r="J9" t="n">
-        <v>140495.7561256773</v>
+        <v>184749.1161670526</v>
       </c>
       <c r="K9" t="n">
-        <v>149883.7387885563</v>
+        <v>194027.1235889507</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>50.93101968973433</v>
       </c>
     </row>
     <row r="10">
@@ -826,34 +826,34 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.413327534293121</v>
+        <v>0.4164989217822569</v>
       </c>
       <c r="D10" t="n">
-        <v>156402.8011420401</v>
+        <v>198384.415517818</v>
       </c>
       <c r="E10" t="n">
-        <v>166524.1210733571</v>
+        <v>208551.2035332875</v>
       </c>
       <c r="F10" t="n">
-        <v>156402.8011420401</v>
+        <v>198384.415517818</v>
       </c>
       <c r="G10" t="n">
-        <v>0.009999999999999905</v>
+        <v>0.009999999999999929</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02749445546428887</v>
+        <v>0.02925605137312428</v>
       </c>
       <c r="I10" t="n">
-        <v>105</v>
+        <v>142.5</v>
       </c>
       <c r="J10" t="n">
-        <v>156507.8011420401</v>
+        <v>198526.915517818</v>
       </c>
       <c r="K10" t="n">
-        <v>167021.1796536501</v>
+        <v>209219.3937357737</v>
       </c>
       <c r="L10" t="n">
-        <v>105</v>
+        <v>142.5</v>
       </c>
     </row>
     <row r="11">
@@ -868,34 +868,34 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.3967631143114563</v>
+        <v>0.3988338551237502</v>
       </c>
       <c r="D11" t="n">
-        <v>159597.0649230403</v>
+        <v>198564.5707349211</v>
       </c>
       <c r="E11" t="n">
-        <v>168045.213339946</v>
+        <v>208928.6306521259</v>
       </c>
       <c r="F11" t="n">
-        <v>159597.0649230403</v>
+        <v>198564.5707349211</v>
       </c>
       <c r="G11" t="n">
-        <v>0.009999999999999905</v>
+        <v>0.009999999999999929</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02485180089578153</v>
+        <v>0.02329810873047631</v>
       </c>
       <c r="I11" t="n">
-        <v>105</v>
+        <v>142.5</v>
       </c>
       <c r="J11" t="n">
-        <v>159702.0649230403</v>
+        <v>198707.0707349211</v>
       </c>
       <c r="K11" t="n">
-        <v>168454.7530164294</v>
+        <v>209486.4136114697</v>
       </c>
       <c r="L11" t="n">
-        <v>105</v>
+        <v>142.5</v>
       </c>
     </row>
     <row r="12">
@@ -910,31 +910,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9823196459810106</v>
+        <v>0.982444186287003</v>
       </c>
       <c r="D12" t="n">
-        <v>17154.89126112844</v>
+        <v>27141.98536058238</v>
       </c>
       <c r="E12" t="n">
-        <v>20601.66407879172</v>
+        <v>31580.30461878086</v>
       </c>
       <c r="F12" t="n">
-        <v>17154.89126112844</v>
+        <v>27141.98536058238</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1.610775915059818e-07</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>17154.89126112844</v>
+        <v>27141.98536058238</v>
       </c>
       <c r="K12" t="n">
-        <v>20601.66407879172</v>
+        <v>31585.66044869844</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -952,34 +952,34 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8171811642575961</v>
+        <v>0.818988182004031</v>
       </c>
       <c r="D13" t="n">
-        <v>111529.9940324439</v>
+        <v>148960.5276624352</v>
       </c>
       <c r="E13" t="n">
-        <v>120129.3880140484</v>
+        <v>157611.113448975</v>
       </c>
       <c r="F13" t="n">
-        <v>111529.9940324439</v>
+        <v>148960.5276624352</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.0002251929900182914</v>
       </c>
       <c r="H13" t="n">
-        <v>5.912561875968674e-05</v>
+        <v>0.01519392366619645</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>5.990133534486573</v>
       </c>
       <c r="J13" t="n">
-        <v>111529.9940324439</v>
+        <v>148966.5177959696</v>
       </c>
       <c r="K13" t="n">
-        <v>120217.1805994794</v>
+        <v>158015.2718184959</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>5.990133534486573</v>
       </c>
     </row>
     <row r="14">
@@ -994,34 +994,34 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.6396710372473863</v>
+        <v>0.6424337212450967</v>
       </c>
       <c r="D14" t="n">
-        <v>125263.9032285218</v>
+        <v>161919.080554914</v>
       </c>
       <c r="E14" t="n">
-        <v>135025.4596369151</v>
+        <v>171045.5144476688</v>
       </c>
       <c r="F14" t="n">
-        <v>125263.9032285218</v>
+        <v>161919.080554914</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.003638681865645757</v>
       </c>
       <c r="H14" t="n">
-        <v>0.000555384797919084</v>
+        <v>0.02541833295776177</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>96.78893762617751</v>
       </c>
       <c r="J14" t="n">
-        <v>125263.9032285218</v>
+        <v>162015.8694925402</v>
       </c>
       <c r="K14" t="n">
-        <v>135269.5300862248</v>
+        <v>171721.6421043453</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>96.78893762617751</v>
       </c>
     </row>
     <row r="15">
@@ -1036,34 +1036,34 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.4119103335077707</v>
+        <v>0.4137511290085212</v>
       </c>
       <c r="D15" t="n">
-        <v>143370.4323154436</v>
+        <v>176296.5980909674</v>
       </c>
       <c r="E15" t="n">
-        <v>153551.0916585604</v>
+        <v>186722.1192798289</v>
       </c>
       <c r="F15" t="n">
-        <v>143370.4323154436</v>
+        <v>176296.5980909674</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02489130257355281</v>
+        <v>0.02555791163659549</v>
       </c>
       <c r="I15" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="J15" t="n">
-        <v>143566.4323154436</v>
+        <v>176562.5980909674</v>
       </c>
       <c r="K15" t="n">
-        <v>154280.4359803746</v>
+        <v>187727.2781576052</v>
       </c>
       <c r="L15" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16">
@@ -1078,34 +1078,34 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.3939539599978985</v>
+        <v>0.3978056659871501</v>
       </c>
       <c r="D16" t="n">
-        <v>145775.4276440667</v>
+        <v>178322.1049139856</v>
       </c>
       <c r="E16" t="n">
-        <v>154961.0768302313</v>
+        <v>188350.0163615045</v>
       </c>
       <c r="F16" t="n">
-        <v>145775.4276440667</v>
+        <v>178322.1049139856</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02332944757897115</v>
+        <v>0.02977622793618</v>
       </c>
       <c r="I16" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="J16" t="n">
-        <v>145971.4276440667</v>
+        <v>178588.1049139856</v>
       </c>
       <c r="K16" t="n">
-        <v>155692.106488982</v>
+        <v>189608.510228343</v>
       </c>
       <c r="L16" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17">
@@ -1120,31 +1120,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.9823392407637377</v>
+        <v>0.9822810297230508</v>
       </c>
       <c r="D17" t="n">
-        <v>17438.78386417262</v>
+        <v>22442.76022757287</v>
       </c>
       <c r="E17" t="n">
-        <v>21352.25180847063</v>
+        <v>26486.76921671257</v>
       </c>
       <c r="F17" t="n">
-        <v>17438.78386417262</v>
+        <v>22442.76022757287</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.115853029806395e-07</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>17438.78386417262</v>
+        <v>22442.76022757287</v>
       </c>
       <c r="K17" t="n">
-        <v>21352.25180847063</v>
+        <v>26496.81951860415</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1162,31 +1162,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.8154540468899483</v>
+        <v>0.8180918887281939</v>
       </c>
       <c r="D18" t="n">
-        <v>97988.6364167962</v>
+        <v>126563.069173452</v>
       </c>
       <c r="E18" t="n">
-        <v>107144.728420625</v>
+        <v>136632.6171306284</v>
       </c>
       <c r="F18" t="n">
-        <v>97988.6364167962</v>
+        <v>126563.069173452</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>5.212294998329787e-05</v>
+        <v>0.0004522596769755218</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>97988.6364167962</v>
+        <v>126563.069173452</v>
       </c>
       <c r="K18" t="n">
-        <v>107233.7188230355</v>
+        <v>136987.6970423034</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1204,34 +1204,34 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.637036077665824</v>
+        <v>0.6405732997727202</v>
       </c>
       <c r="D19" t="n">
-        <v>113193.7073697877</v>
+        <v>141866.911641108</v>
       </c>
       <c r="E19" t="n">
-        <v>123025.4694082533</v>
+        <v>150388.1095733548</v>
       </c>
       <c r="F19" t="n">
-        <v>113193.7073697877</v>
+        <v>141866.911641108</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.001818000672455269</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0004304157314349371</v>
+        <v>0.02087837572585946</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>69.08402555330039</v>
       </c>
       <c r="J19" t="n">
-        <v>113193.7073697877</v>
+        <v>141935.9956666613</v>
       </c>
       <c r="K19" t="n">
-        <v>123325.2614599991</v>
+        <v>151181.4878509375</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>69.08402555330039</v>
       </c>
     </row>
     <row r="20">
@@ -1246,34 +1246,34 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.4112745638097692</v>
+        <v>0.4132510512851231</v>
       </c>
       <c r="D20" t="n">
-        <v>131654.3383120974</v>
+        <v>157549.5113830346</v>
       </c>
       <c r="E20" t="n">
-        <v>142258.0594928669</v>
+        <v>168442.6307095765</v>
       </c>
       <c r="F20" t="n">
-        <v>131654.3383120974</v>
+        <v>157549.5113830346</v>
       </c>
       <c r="G20" t="n">
-        <v>0.006437157214779519</v>
+        <v>0.009999999999999972</v>
       </c>
       <c r="H20" t="n">
-        <v>0.02494204968688549</v>
+        <v>0.02681299252702149</v>
       </c>
       <c r="I20" t="n">
-        <v>180.2404020138272</v>
+        <v>380</v>
       </c>
       <c r="J20" t="n">
-        <v>131834.5787141112</v>
+        <v>157929.5113830346</v>
       </c>
       <c r="K20" t="n">
-        <v>142956.4368840997</v>
+        <v>169960.0831057399</v>
       </c>
       <c r="L20" t="n">
-        <v>180.2404020138272</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21">
@@ -1288,34 +1288,34 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.3921787635140916</v>
+        <v>0.39566075613007</v>
       </c>
       <c r="D21" t="n">
-        <v>135250.7601474534</v>
+        <v>158258.1410885907</v>
       </c>
       <c r="E21" t="n">
-        <v>145073.068370846</v>
+        <v>168114.9121473802</v>
       </c>
       <c r="F21" t="n">
-        <v>135250.7601474534</v>
+        <v>158258.1410885907</v>
       </c>
       <c r="G21" t="n">
-        <v>0.009999999999999966</v>
+        <v>0.009999999999999972</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02361353547521183</v>
+        <v>0.02773341239515153</v>
       </c>
       <c r="I21" t="n">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="J21" t="n">
-        <v>135530.7601474534</v>
+        <v>158638.1410885907</v>
       </c>
       <c r="K21" t="n">
-        <v>146081.5939024307</v>
+        <v>169643.3379247451</v>
       </c>
       <c r="L21" t="n">
-        <v>280</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -1406,19 +1406,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>121829.664114389</v>
+        <v>168196.9650074969</v>
       </c>
       <c r="E2" t="n">
-        <v>126318.9527286087</v>
+        <v>172401.0568401012</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>121829.664114389</v>
+        <v>168196.9650074969</v>
       </c>
       <c r="H2" t="n">
-        <v>126318.9527286087</v>
+        <v>172401.0568401012</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1444,19 +1444,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>187893.2467576699</v>
+        <v>233901.5779158411</v>
       </c>
       <c r="E3" t="n">
-        <v>197091.1653749209</v>
+        <v>242897.6687006156</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>187893.2467576699</v>
+        <v>233901.5779158411</v>
       </c>
       <c r="H3" t="n">
-        <v>197091.1653749209</v>
+        <v>242897.6687006156</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>198985.6758993856</v>
+        <v>245171.0488656423</v>
       </c>
       <c r="E4" t="n">
-        <v>208547.70366944</v>
+        <v>254223.9309958674</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>198985.6758993856</v>
+        <v>245171.0488656423</v>
       </c>
       <c r="H4" t="n">
-        <v>208547.70366944</v>
+        <v>254223.9309958674</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1520,19 +1520,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>211240.7588842058</v>
+        <v>256999.9993728732</v>
       </c>
       <c r="E5" t="n">
-        <v>220353.420098644</v>
+        <v>265842.3453517665</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>211240.7588842058</v>
+        <v>256999.9993728732</v>
       </c>
       <c r="H5" t="n">
-        <v>220353.420098644</v>
+        <v>265842.3453517665</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1558,19 +1558,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>211331.4606634509</v>
+        <v>257109.3957698636</v>
       </c>
       <c r="E6" t="n">
-        <v>219667.2774161219</v>
+        <v>265011.56770623</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>211331.4606634509</v>
+        <v>257109.3957698636</v>
       </c>
       <c r="H6" t="n">
-        <v>219667.2774161219</v>
+        <v>265011.56770623</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1596,25 +1596,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17945.48087318345</v>
+        <v>49647.02010339057</v>
       </c>
       <c r="E7" t="n">
-        <v>21983.47267458183</v>
+        <v>54320.18212046334</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>327.9697713389484</v>
+        <v>270.9863674873552</v>
       </c>
       <c r="H7" t="n">
-        <v>363.3328414879439</v>
+        <v>322.7398951582833</v>
       </c>
       <c r="I7" t="n">
-        <v>-17617.5111018445</v>
+        <v>-49376.03373590321</v>
       </c>
       <c r="J7" t="n">
-        <v>-98.17241023711411</v>
+        <v>-99.45417395258966</v>
       </c>
     </row>
     <row r="8">
@@ -1634,25 +1634,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>126819.6940210681</v>
+        <v>172015.5431594522</v>
       </c>
       <c r="E8" t="n">
-        <v>136490.3980208867</v>
+        <v>181065.9335056128</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2759.67069166779</v>
+        <v>2620.610000382891</v>
       </c>
       <c r="H8" t="n">
-        <v>3111.757681282013</v>
+        <v>3114.578274378942</v>
       </c>
       <c r="I8" t="n">
-        <v>-124060.0233294003</v>
+        <v>-169394.9331590693</v>
       </c>
       <c r="J8" t="n">
-        <v>-97.82394153134501</v>
+        <v>-98.47652720664105</v>
       </c>
     </row>
     <row r="9">
@@ -1672,25 +1672,25 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>140495.7561256773</v>
+        <v>184698.1851473628</v>
       </c>
       <c r="E9" t="n">
-        <v>149716.8516460881</v>
+        <v>193619.9572859741</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>50.93101968973433</v>
       </c>
       <c r="G9" t="n">
-        <v>6124.744117516394</v>
+        <v>5805.438496430266</v>
       </c>
       <c r="H9" t="n">
-        <v>6816.358394385369</v>
+        <v>6917.193505474384</v>
       </c>
       <c r="I9" t="n">
-        <v>-134371.012008161</v>
+        <v>-178892.7466509326</v>
       </c>
       <c r="J9" t="n">
-        <v>-95.64061984047572</v>
+        <v>-96.85679721660591</v>
       </c>
     </row>
     <row r="10">
@@ -1710,25 +1710,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>156402.8011420401</v>
+        <v>198384.415517818</v>
       </c>
       <c r="E10" t="n">
-        <v>166524.1210733571</v>
+        <v>208551.2035332875</v>
       </c>
       <c r="F10" t="n">
-        <v>105</v>
+        <v>142.5</v>
       </c>
       <c r="G10" t="n">
-        <v>11268.25091345382</v>
+        <v>11585.3649157984</v>
       </c>
       <c r="H10" t="n">
-        <v>12862.59784518622</v>
+        <v>14397.15782221368</v>
       </c>
       <c r="I10" t="n">
-        <v>-145134.5502285863</v>
+        <v>-186799.0506020196</v>
       </c>
       <c r="J10" t="n">
-        <v>-92.7953650246837</v>
+        <v>-94.16014363549749</v>
       </c>
     </row>
     <row r="11">
@@ -1748,25 +1748,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>159597.0649230403</v>
+        <v>198564.5707349211</v>
       </c>
       <c r="E11" t="n">
-        <v>168045.213339946</v>
+        <v>208928.6306521259</v>
       </c>
       <c r="F11" t="n">
-        <v>105</v>
+        <v>142.5</v>
       </c>
       <c r="G11" t="n">
-        <v>11865.25870367696</v>
+        <v>11888.86068704813</v>
       </c>
       <c r="H11" t="n">
-        <v>13435.35185050296</v>
+        <v>14212.8900226742</v>
       </c>
       <c r="I11" t="n">
-        <v>-147731.8062193634</v>
+        <v>-186675.7100478729</v>
       </c>
       <c r="J11" t="n">
-        <v>-92.56549065648636</v>
+        <v>-94.01259719040237</v>
       </c>
     </row>
     <row r="12">
@@ -1786,25 +1786,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>17154.89126112844</v>
+        <v>27141.98536058238</v>
       </c>
       <c r="E12" t="n">
-        <v>20601.66407879172</v>
+        <v>31580.30461878086</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>321.3932392963318</v>
+        <v>303.998684204323</v>
       </c>
       <c r="H12" t="n">
-        <v>358.8113688117585</v>
+        <v>342.9388062131835</v>
       </c>
       <c r="I12" t="n">
-        <v>-16833.4980218321</v>
+        <v>-26837.98667637806</v>
       </c>
       <c r="J12" t="n">
-        <v>-98.12652126787546</v>
+        <v>-98.87996887417893</v>
       </c>
     </row>
     <row r="13">
@@ -1824,25 +1824,25 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>111529.9940324439</v>
+        <v>148960.5276624352</v>
       </c>
       <c r="E13" t="n">
-        <v>120129.3880140484</v>
+        <v>157611.113448975</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>5.990133534486573</v>
       </c>
       <c r="G13" t="n">
-        <v>2927.399515659442</v>
+        <v>2767.008019456496</v>
       </c>
       <c r="H13" t="n">
-        <v>3248.786017425488</v>
+        <v>3350.906650811955</v>
       </c>
       <c r="I13" t="n">
-        <v>-108602.5945167844</v>
+        <v>-146193.5196429787</v>
       </c>
       <c r="J13" t="n">
-        <v>-97.3752356565106</v>
+        <v>-98.1424555465278</v>
       </c>
     </row>
     <row r="14">
@@ -1862,25 +1862,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>125263.9032285218</v>
+        <v>161919.080554914</v>
       </c>
       <c r="E14" t="n">
-        <v>135025.4596369151</v>
+        <v>171045.5144476688</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>96.78893762617751</v>
       </c>
       <c r="G14" t="n">
-        <v>6360.415197846615</v>
+        <v>6102.241780644975</v>
       </c>
       <c r="H14" t="n">
-        <v>6962.65777981692</v>
+        <v>7093.433165684107</v>
       </c>
       <c r="I14" t="n">
-        <v>-118903.4880306752</v>
+        <v>-155816.8387742691</v>
       </c>
       <c r="J14" t="n">
-        <v>-94.92238782768635</v>
+        <v>-96.23130161082193</v>
       </c>
     </row>
     <row r="15">
@@ -1900,25 +1900,25 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>143370.4323154436</v>
+        <v>176296.5980909674</v>
       </c>
       <c r="E15" t="n">
-        <v>153551.0916585604</v>
+        <v>186722.1192798289</v>
       </c>
       <c r="F15" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="G15" t="n">
-        <v>11551.62508394768</v>
+        <v>11699.76740833461</v>
       </c>
       <c r="H15" t="n">
-        <v>12769.5051835566</v>
+        <v>13817.51132827908</v>
       </c>
       <c r="I15" t="n">
-        <v>-131818.8072314959</v>
+        <v>-164596.8306826328</v>
       </c>
       <c r="J15" t="n">
-        <v>-91.94281212842283</v>
+        <v>-93.36358867100904</v>
       </c>
     </row>
     <row r="16">
@@ -1938,25 +1938,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>145775.4276440667</v>
+        <v>178322.1049139856</v>
       </c>
       <c r="E16" t="n">
-        <v>154961.0768302313</v>
+        <v>188350.0163615045</v>
       </c>
       <c r="F16" t="n">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="G16" t="n">
-        <v>11897.42073663007</v>
+        <v>11840.15791563312</v>
       </c>
       <c r="H16" t="n">
-        <v>13149.96385928181</v>
+        <v>14746.62291859462</v>
       </c>
       <c r="I16" t="n">
-        <v>-133878.0069074366</v>
+        <v>-166481.9469983525</v>
       </c>
       <c r="J16" t="n">
-        <v>-91.83852798176694</v>
+        <v>-93.3602410529282</v>
       </c>
     </row>
     <row r="17">
@@ -1976,25 +1976,25 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>17438.78386417262</v>
+        <v>22442.76022757287</v>
       </c>
       <c r="E17" t="n">
-        <v>21352.25180847063</v>
+        <v>26486.76921671257</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>319.8245743840517</v>
+        <v>319.5870358196692</v>
       </c>
       <c r="H17" t="n">
-        <v>361.3372886141601</v>
+        <v>368.7848616486021</v>
       </c>
       <c r="I17" t="n">
-        <v>-17118.95928978857</v>
+        <v>-22123.1731917532</v>
       </c>
       <c r="J17" t="n">
-        <v>-98.16601560707957</v>
+        <v>-98.57599050839107</v>
       </c>
     </row>
     <row r="18">
@@ -2014,25 +2014,25 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>97988.6364167962</v>
+        <v>126563.069173452</v>
       </c>
       <c r="E18" t="n">
-        <v>107144.728420625</v>
+        <v>136632.6171306284</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>3076.249359307586</v>
+        <v>2898.478851248988</v>
       </c>
       <c r="H18" t="n">
-        <v>3420.733179624282</v>
+        <v>3400.609545328487</v>
       </c>
       <c r="I18" t="n">
-        <v>-94912.38705748861</v>
+        <v>-123664.590322203</v>
       </c>
       <c r="J18" t="n">
-        <v>-96.86060601331086</v>
+        <v>-97.70985416979997</v>
       </c>
     </row>
     <row r="19">
@@ -2052,25 +2052,25 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>113193.7073697877</v>
+        <v>141866.911641108</v>
       </c>
       <c r="E19" t="n">
-        <v>123025.4694082533</v>
+        <v>150388.1095733548</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>69.08402555330039</v>
       </c>
       <c r="G19" t="n">
-        <v>6435.256177637727</v>
+        <v>6344.325924891871</v>
       </c>
       <c r="H19" t="n">
-        <v>7052.296749251489</v>
+        <v>7282.508361842371</v>
       </c>
       <c r="I19" t="n">
-        <v>-106758.45119215</v>
+        <v>-135522.5857162161</v>
       </c>
       <c r="J19" t="n">
-        <v>-94.31482868865257</v>
+        <v>-95.52797347069793</v>
       </c>
     </row>
     <row r="20">
@@ -2090,25 +2090,25 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>131654.3383120974</v>
+        <v>157549.5113830346</v>
       </c>
       <c r="E20" t="n">
-        <v>142258.0594928669</v>
+        <v>168442.6307095765</v>
       </c>
       <c r="F20" t="n">
-        <v>180.2404020138272</v>
+        <v>380</v>
       </c>
       <c r="G20" t="n">
-        <v>11578.83426462438</v>
+        <v>11692.12245036755</v>
       </c>
       <c r="H20" t="n">
-        <v>12781.13345433567</v>
+        <v>13589.19317543773</v>
       </c>
       <c r="I20" t="n">
-        <v>-120075.504047473</v>
+        <v>-145857.388932667</v>
       </c>
       <c r="J20" t="n">
-        <v>-91.20512516862466</v>
+        <v>-92.57876311533481</v>
       </c>
     </row>
     <row r="21">
@@ -2128,25 +2128,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>135250.7601474534</v>
+        <v>158258.1410885907</v>
       </c>
       <c r="E21" t="n">
-        <v>145073.068370846</v>
+        <v>168114.9121473802</v>
       </c>
       <c r="F21" t="n">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="G21" t="n">
-        <v>11921.55368899196</v>
+        <v>12028.48361317266</v>
       </c>
       <c r="H21" t="n">
-        <v>13063.49037561235</v>
+        <v>14257.03923946471</v>
       </c>
       <c r="I21" t="n">
-        <v>-123329.2064584615</v>
+        <v>-146229.657475418</v>
       </c>
       <c r="J21" t="n">
-        <v>-91.18559209870996</v>
+        <v>-92.39945349387159</v>
       </c>
     </row>
   </sheetData>
@@ -2212,16 +2212,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>121829.664114389</v>
+        <v>168196.9650074969</v>
       </c>
       <c r="D2" t="n">
-        <v>17945.48087318345</v>
+        <v>49647.02010339057</v>
       </c>
       <c r="E2" t="n">
-        <v>103884.1832412056</v>
+        <v>118549.9449041063</v>
       </c>
       <c r="F2" t="n">
-        <v>85.27002351715099</v>
+        <v>70.4828085921897</v>
       </c>
     </row>
     <row r="3">
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>121829.664114389</v>
+        <v>168196.9650074969</v>
       </c>
       <c r="D3" t="n">
-        <v>17154.89126112844</v>
+        <v>27141.98536058238</v>
       </c>
       <c r="E3" t="n">
-        <v>104674.7728532606</v>
+        <v>141054.9796469145</v>
       </c>
       <c r="F3" t="n">
-        <v>85.91895382308429</v>
+        <v>83.86297555406388</v>
       </c>
     </row>
     <row r="4">
@@ -2260,16 +2260,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>121829.664114389</v>
+        <v>168196.9650074969</v>
       </c>
       <c r="D4" t="n">
-        <v>17438.78386417262</v>
+        <v>22442.76022757287</v>
       </c>
       <c r="E4" t="n">
-        <v>104390.8802502164</v>
+        <v>145754.204779924</v>
       </c>
       <c r="F4" t="n">
-        <v>85.6859296207212</v>
+        <v>86.65685779373453</v>
       </c>
     </row>
     <row r="5">
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>187893.2467576699</v>
+        <v>233901.5779158411</v>
       </c>
       <c r="D5" t="n">
-        <v>126819.6940210681</v>
+        <v>172015.5431594522</v>
       </c>
       <c r="E5" t="n">
-        <v>61073.55273660182</v>
+        <v>61886.03475638898</v>
       </c>
       <c r="F5" t="n">
-        <v>32.50438948206038</v>
+        <v>26.45815188927707</v>
       </c>
     </row>
     <row r="6">
@@ -2308,16 +2308,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>187893.2467576699</v>
+        <v>233901.5779158411</v>
       </c>
       <c r="D6" t="n">
-        <v>111529.9940324439</v>
+        <v>148960.5276624352</v>
       </c>
       <c r="E6" t="n">
-        <v>76363.25272522605</v>
+        <v>84941.05025340596</v>
       </c>
       <c r="F6" t="n">
-        <v>40.64182935947316</v>
+        <v>36.31486842041235</v>
       </c>
     </row>
     <row r="7">
@@ -2332,16 +2332,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>187893.2467576699</v>
+        <v>233901.5779158411</v>
       </c>
       <c r="D7" t="n">
-        <v>97988.6364167962</v>
+        <v>126563.069173452</v>
       </c>
       <c r="E7" t="n">
-        <v>89904.61034087373</v>
+        <v>107338.5087423892</v>
       </c>
       <c r="F7" t="n">
-        <v>47.84877151908801</v>
+        <v>45.89045943974352</v>
       </c>
     </row>
     <row r="8">
@@ -2356,16 +2356,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>198985.6758993856</v>
+        <v>245171.0488656423</v>
       </c>
       <c r="D8" t="n">
-        <v>140495.7561256773</v>
+        <v>184698.1851473628</v>
       </c>
       <c r="E8" t="n">
-        <v>58489.91977370824</v>
+        <v>60472.8637182794</v>
       </c>
       <c r="F8" t="n">
-        <v>29.39403527884232</v>
+        <v>24.66558102927541</v>
       </c>
     </row>
     <row r="9">
@@ -2380,16 +2380,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>198985.6758993856</v>
+        <v>245171.0488656423</v>
       </c>
       <c r="D9" t="n">
-        <v>125263.9032285218</v>
+        <v>161919.080554914</v>
       </c>
       <c r="E9" t="n">
-        <v>73721.77267086379</v>
+        <v>83251.9683107282</v>
       </c>
       <c r="F9" t="n">
-        <v>37.04878370649162</v>
+        <v>33.95668807386457</v>
       </c>
     </row>
     <row r="10">
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>198985.6758993856</v>
+        <v>245171.0488656423</v>
       </c>
       <c r="D10" t="n">
-        <v>113193.7073697877</v>
+        <v>141866.911641108</v>
       </c>
       <c r="E10" t="n">
-        <v>85791.96852959789</v>
+        <v>103304.1372245343</v>
       </c>
       <c r="F10" t="n">
-        <v>43.1146453843127</v>
+        <v>42.13553668041231</v>
       </c>
     </row>
     <row r="11">
@@ -2428,16 +2428,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>211240.7588842058</v>
+        <v>256999.9993728732</v>
       </c>
       <c r="D11" t="n">
-        <v>156402.8011420401</v>
+        <v>198384.415517818</v>
       </c>
       <c r="E11" t="n">
-        <v>54837.95774216572</v>
+        <v>58615.58385505524</v>
       </c>
       <c r="F11" t="n">
-        <v>25.95993217967267</v>
+        <v>22.80762023271904</v>
       </c>
     </row>
     <row r="12">
@@ -2452,16 +2452,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>211240.7588842058</v>
+        <v>256999.9993728732</v>
       </c>
       <c r="D12" t="n">
-        <v>143370.4323154436</v>
+        <v>176296.5980909674</v>
       </c>
       <c r="E12" t="n">
-        <v>67870.32656876228</v>
+        <v>80703.4012819058</v>
       </c>
       <c r="F12" t="n">
-        <v>32.12937073662295</v>
+        <v>31.40210174273805</v>
       </c>
     </row>
     <row r="13">
@@ -2476,16 +2476,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>211240.7588842058</v>
+        <v>256999.9993728732</v>
       </c>
       <c r="D13" t="n">
-        <v>131654.3383120974</v>
+        <v>157549.5113830346</v>
       </c>
       <c r="E13" t="n">
-        <v>79586.42057210841</v>
+        <v>99450.48798983867</v>
       </c>
       <c r="F13" t="n">
-        <v>37.67569336168437</v>
+        <v>38.69668802821633</v>
       </c>
     </row>
     <row r="14">
@@ -2500,16 +2500,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>211331.4606634509</v>
+        <v>257109.3957698636</v>
       </c>
       <c r="D14" t="n">
-        <v>159597.0649230403</v>
+        <v>198564.5707349211</v>
       </c>
       <c r="E14" t="n">
-        <v>51734.3957404106</v>
+        <v>58544.82503494248</v>
       </c>
       <c r="F14" t="n">
-        <v>24.48021490884338</v>
+        <v>22.77039501401398</v>
       </c>
     </row>
     <row r="15">
@@ -2524,16 +2524,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>211331.4606634509</v>
+        <v>257109.3957698636</v>
       </c>
       <c r="D15" t="n">
-        <v>145775.4276440667</v>
+        <v>178322.1049139856</v>
       </c>
       <c r="E15" t="n">
-        <v>65556.03301938419</v>
+        <v>78787.29085587792</v>
       </c>
       <c r="F15" t="n">
-        <v>31.02047977787052</v>
+        <v>30.64348956208499</v>
       </c>
     </row>
     <row r="16">
@@ -2548,16 +2548,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>211331.4606634509</v>
+        <v>257109.3957698636</v>
       </c>
       <c r="D16" t="n">
-        <v>135250.7601474534</v>
+        <v>158258.1410885907</v>
       </c>
       <c r="E16" t="n">
-        <v>76080.70051599748</v>
+        <v>98851.25468127287</v>
       </c>
       <c r="F16" t="n">
-        <v>36.0006504839132</v>
+        <v>38.44715763314764</v>
       </c>
     </row>
   </sheetData>
@@ -2638,19 +2638,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9822986308332026</v>
+        <v>0.9826719646030546</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.083575882791833e-07</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.083575882791833e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="3">
@@ -2670,19 +2670,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8186366174467081</v>
+        <v>0.8206754309837626</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>7.707580972188864e-05</v>
+        <v>0.0008657109545889521</v>
       </c>
       <c r="G3" t="n">
-        <v>7.707580972188864e-05</v>
+        <v>0.0008657109545889521</v>
       </c>
       <c r="H3" t="n">
-        <v>0.012</v>
+        <v>0.0454</v>
       </c>
     </row>
     <row r="4">
@@ -2702,19 +2702,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6416906222967823</v>
+        <v>0.646859056449052</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.003574106644893613</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0006071513183129611</v>
+        <v>0.0285730738930953</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0006071513183129611</v>
+        <v>0.02499896724820169</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0382</v>
+        <v>0.0522</v>
       </c>
     </row>
     <row r="5">
@@ -2734,19 +2734,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.413327534293121</v>
+        <v>0.4164989217822569</v>
       </c>
       <c r="E5" t="n">
-        <v>0.009999999999999905</v>
+        <v>0.009999999999999929</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02749445546428887</v>
+        <v>0.02925605137312428</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01749445546428896</v>
+        <v>0.01925605137312435</v>
       </c>
       <c r="H5" t="n">
-        <v>0.064</v>
+        <v>0.0776</v>
       </c>
     </row>
     <row r="6">
@@ -2766,19 +2766,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.3967631143114563</v>
+        <v>0.3988338551237502</v>
       </c>
       <c r="E6" t="n">
-        <v>0.009999999999999905</v>
+        <v>0.009999999999999929</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02485180089578153</v>
+        <v>0.02329810873047631</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01485180089578163</v>
+        <v>0.01329810873047638</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07920000000000001</v>
+        <v>0.0868</v>
       </c>
     </row>
     <row r="7">
@@ -2798,19 +2798,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9823196459810106</v>
+        <v>0.982444186287003</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.610775915059818e-07</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1.610775915059818e-07</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="8">
@@ -2830,19 +2830,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8171811642575961</v>
+        <v>0.818988182004031</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.0002251929900182914</v>
       </c>
       <c r="F8" t="n">
-        <v>5.912561875968674e-05</v>
+        <v>0.01519392366619645</v>
       </c>
       <c r="G8" t="n">
-        <v>5.912561875968674e-05</v>
+        <v>0.01496873067617816</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0132</v>
+        <v>0.0506</v>
       </c>
     </row>
     <row r="9">
@@ -2862,19 +2862,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.6396710372473863</v>
+        <v>0.6424337212450967</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.003638681865645757</v>
       </c>
       <c r="F9" t="n">
-        <v>0.000555384797919084</v>
+        <v>0.02541833295776177</v>
       </c>
       <c r="G9" t="n">
-        <v>0.000555384797919084</v>
+        <v>0.02177965109211601</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0446</v>
+        <v>0.0534</v>
       </c>
     </row>
     <row r="10">
@@ -2894,19 +2894,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.4119103335077707</v>
+        <v>0.4137511290085212</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02489130257355281</v>
+        <v>0.02555791163659549</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01489130257355286</v>
+        <v>0.01555791163659553</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0608</v>
+        <v>0.07580000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -2926,19 +2926,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.3939539599978985</v>
+        <v>0.3978056659871501</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00999999999999995</v>
+        <v>0.009999999999999962</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02332944757897115</v>
+        <v>0.02977622793618</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0133294475789712</v>
+        <v>0.01977622793618004</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07779999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -2958,19 +2958,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9823392407637377</v>
+        <v>0.9822810297230508</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.115853029806395e-07</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2.115853029806395e-07</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="13">
@@ -2990,19 +2990,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.8154540468899483</v>
+        <v>0.8180918887281939</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>5.212294998329787e-05</v>
+        <v>0.0004522596769755218</v>
       </c>
       <c r="G13" t="n">
-        <v>5.212294998329787e-05</v>
+        <v>0.0004522596769755218</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0164</v>
+        <v>0.0484</v>
       </c>
     </row>
     <row r="14">
@@ -3022,19 +3022,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.637036077665824</v>
+        <v>0.6405732997727202</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.001818000672455269</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0004304157314349371</v>
+        <v>0.02087837572585946</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0004304157314349371</v>
+        <v>0.0190603750534042</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0402</v>
+        <v>0.0522</v>
       </c>
     </row>
     <row r="15">
@@ -3054,19 +3054,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.4112745638097692</v>
+        <v>0.4132510512851231</v>
       </c>
       <c r="E15" t="n">
-        <v>0.006437157214779519</v>
+        <v>0.009999999999999972</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02494204968688549</v>
+        <v>0.02681299252702149</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01850489247210597</v>
+        <v>0.01681299252702152</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0602</v>
+        <v>0.07539999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -3086,19 +3086,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.3921787635140916</v>
+        <v>0.39566075613007</v>
       </c>
       <c r="E16" t="n">
-        <v>0.009999999999999966</v>
+        <v>0.009999999999999972</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02361353547521183</v>
+        <v>0.02773341239515153</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01361353547521187</v>
+        <v>0.01773341239515156</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07580000000000001</v>
+        <v>0.0848</v>
       </c>
     </row>
   </sheetData>

--- a/js_simulation/simulation_results_v1000.xlsx
+++ b/js_simulation/simulation_results_v1000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="System_Risk_Analysis" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="STO_Benefit" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Retail_Risk" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="System_Risk_Analysis" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="STO_Benefit" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Retail_Risk" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,16 +20,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -48,21 +45,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -428,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,62 +425,62 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>STO_Ratio</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Market</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Sales_Rate</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Financial_VaR95</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Financial_ES95</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Systemic_VaR95</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Retail_VaR95_Rate</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Retail_ES95_Rate</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Retail_VaR95_Absolute</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Extended_Systemic_VaR95</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Extended_Systemic_ES95</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>System_Risk_Change</t>
         </is>
@@ -510,16 +498,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9837461026580214</v>
+        <v>0.9837537948605709</v>
       </c>
       <c r="D2" t="n">
-        <v>168196.9650074969</v>
+        <v>167794.0783499571</v>
       </c>
       <c r="E2" t="n">
-        <v>172401.0568401012</v>
+        <v>172064.1631961356</v>
       </c>
       <c r="F2" t="n">
-        <v>168196.9650074969</v>
+        <v>167794.0783499571</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -527,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>168196.9650074969</v>
+        <v>167794.0783499571</v>
       </c>
       <c r="K2" t="n">
-        <v>172401.0568401012</v>
+        <v>172064.1631961356</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -548,16 +536,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8246489788919618</v>
+        <v>0.8238787788865005</v>
       </c>
       <c r="D3" t="n">
-        <v>233901.5779158411</v>
+        <v>233566.6841971613</v>
       </c>
       <c r="E3" t="n">
-        <v>242897.6687006156</v>
+        <v>242813.8000373383</v>
       </c>
       <c r="F3" t="n">
-        <v>233901.5779158411</v>
+        <v>233566.6841971613</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -565,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>233901.5779158411</v>
+        <v>233566.6841971613</v>
       </c>
       <c r="K3" t="n">
-        <v>242897.6687006156</v>
+        <v>242813.8000373383</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -586,16 +574,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.6500760746238917</v>
+        <v>0.6511342308146013</v>
       </c>
       <c r="D4" t="n">
-        <v>245171.0488656423</v>
+        <v>245329.1740498592</v>
       </c>
       <c r="E4" t="n">
-        <v>254223.9309958674</v>
+        <v>254264.9052000773</v>
       </c>
       <c r="F4" t="n">
-        <v>245171.0488656423</v>
+        <v>245329.1740498592</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -603,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>245171.0488656423</v>
+        <v>245329.1740498592</v>
       </c>
       <c r="K4" t="n">
-        <v>254223.9309958674</v>
+        <v>254264.9052000773</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -624,16 +612,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.420625092459201</v>
+        <v>0.4201150331504908</v>
       </c>
       <c r="D5" t="n">
-        <v>256999.9993728732</v>
+        <v>256313.7908175068</v>
       </c>
       <c r="E5" t="n">
-        <v>265842.3453517665</v>
+        <v>265143.2613282698</v>
       </c>
       <c r="F5" t="n">
-        <v>256999.9993728732</v>
+        <v>256313.7908175068</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -641,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256999.9993728732</v>
+        <v>256313.7908175068</v>
       </c>
       <c r="K5" t="n">
-        <v>265842.3453517665</v>
+        <v>265143.2613282698</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -662,16 +650,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4083177865715741</v>
+        <v>0.4055897399153818</v>
       </c>
       <c r="D6" t="n">
-        <v>257109.3957698636</v>
+        <v>256877.076766068</v>
       </c>
       <c r="E6" t="n">
-        <v>265011.56770623</v>
+        <v>265846.813372787</v>
       </c>
       <c r="F6" t="n">
-        <v>257109.3957698636</v>
+        <v>256877.076766068</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
@@ -679,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>257109.3957698636</v>
+        <v>256877.076766068</v>
       </c>
       <c r="K6" t="n">
-        <v>265011.56770623</v>
+        <v>265846.813372787</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -691,7 +679,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>STO 15%</t>
+          <t>STO 10%</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -700,31 +688,31 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9826719646030546</v>
+        <v>0.9827387580027956</v>
       </c>
       <c r="D7" t="n">
-        <v>49647.02010339057</v>
+        <v>59271.42865686108</v>
       </c>
       <c r="E7" t="n">
-        <v>54320.18212046334</v>
+        <v>63845.1240352085</v>
       </c>
       <c r="F7" t="n">
-        <v>49647.02010339057</v>
+        <v>59271.42865686108</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2.083575882791833e-07</v>
+        <v>4.168439603160236e-07</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>49647.02010339057</v>
+        <v>59271.42865686108</v>
       </c>
       <c r="K7" t="n">
-        <v>54327.60485954578</v>
+        <v>63854.5526485966</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -733,7 +721,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>STO 15%</t>
+          <t>STO 10%</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -742,31 +730,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8206754309837626</v>
+        <v>0.8215322906028903</v>
       </c>
       <c r="D8" t="n">
-        <v>172015.5431594522</v>
+        <v>180973.9673924469</v>
       </c>
       <c r="E8" t="n">
-        <v>181065.9335056128</v>
+        <v>190332.2453483027</v>
       </c>
       <c r="F8" t="n">
-        <v>172015.5431594522</v>
+        <v>180973.9673924469</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008657109545889521</v>
+        <v>0.001123322544791468</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>172015.5431594522</v>
+        <v>180973.9673924469</v>
       </c>
       <c r="K8" t="n">
-        <v>181337.6599616237</v>
+        <v>190547.9196444935</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -775,7 +763,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>STO 15%</t>
+          <t>STO 10%</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -784,40 +772,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.646859056449052</v>
+        <v>0.6464149851446971</v>
       </c>
       <c r="D9" t="n">
-        <v>184698.1851473628</v>
+        <v>192732.0306045096</v>
       </c>
       <c r="E9" t="n">
-        <v>193619.9572859741</v>
+        <v>202159.1971664443</v>
       </c>
       <c r="F9" t="n">
-        <v>184698.1851473628</v>
+        <v>192732.0306045096</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003574106644893613</v>
+        <v>0.009999999999999894</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0285730738930953</v>
+        <v>0.03222454883741165</v>
       </c>
       <c r="I9" t="n">
-        <v>50.93101968973433</v>
+        <v>95</v>
       </c>
       <c r="J9" t="n">
-        <v>184749.1161670526</v>
+        <v>192827.0306045096</v>
       </c>
       <c r="K9" t="n">
-        <v>194027.1235889507</v>
+        <v>202628.7340114131</v>
       </c>
       <c r="L9" t="n">
-        <v>50.93101968973433</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>STO 15%</t>
+          <t>STO 10%</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -826,40 +814,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.4164989217822569</v>
+        <v>0.4174197826204125</v>
       </c>
       <c r="D10" t="n">
-        <v>198384.415517818</v>
+        <v>206515.2702517318</v>
       </c>
       <c r="E10" t="n">
-        <v>208551.2035332875</v>
+        <v>217072.3921672027</v>
       </c>
       <c r="F10" t="n">
-        <v>198384.415517818</v>
+        <v>206515.2702517318</v>
       </c>
       <c r="G10" t="n">
-        <v>0.009999999999999929</v>
+        <v>0.009999999999999894</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02925605137312428</v>
+        <v>0.02743583957194232</v>
       </c>
       <c r="I10" t="n">
-        <v>142.5</v>
+        <v>95</v>
       </c>
       <c r="J10" t="n">
-        <v>198526.915517818</v>
+        <v>206610.2702517318</v>
       </c>
       <c r="K10" t="n">
-        <v>209219.3937357737</v>
+        <v>217495.5545517443</v>
       </c>
       <c r="L10" t="n">
-        <v>142.5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>STO 15%</t>
+          <t>STO 10%</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -868,40 +856,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.3988338551237502</v>
+        <v>0.40043935622378</v>
       </c>
       <c r="D11" t="n">
-        <v>198564.5707349211</v>
+        <v>207225.798139347</v>
       </c>
       <c r="E11" t="n">
-        <v>208928.6306521259</v>
+        <v>216829.6574295422</v>
       </c>
       <c r="F11" t="n">
-        <v>198564.5707349211</v>
+        <v>207225.798139347</v>
       </c>
       <c r="G11" t="n">
-        <v>0.009999999999999929</v>
+        <v>0.009999999999999894</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02329810873047631</v>
+        <v>0.02650253046694018</v>
       </c>
       <c r="I11" t="n">
-        <v>142.5</v>
+        <v>95</v>
       </c>
       <c r="J11" t="n">
-        <v>198707.0707349211</v>
+        <v>207320.798139347</v>
       </c>
       <c r="K11" t="n">
-        <v>209486.4136114697</v>
+        <v>217243.9220443175</v>
       </c>
       <c r="L11" t="n">
-        <v>142.5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>STO 28%</t>
+          <t>STO 20%</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -910,31 +898,31 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.982444186287003</v>
+        <v>0.9826116914835882</v>
       </c>
       <c r="D12" t="n">
-        <v>27141.98536058238</v>
+        <v>40896.00557531467</v>
       </c>
       <c r="E12" t="n">
-        <v>31580.30461878086</v>
+        <v>45169.3126231592</v>
       </c>
       <c r="F12" t="n">
-        <v>27141.98536058238</v>
+        <v>40896.00557531467</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1.610775915059818e-07</v>
+        <v>9.904967591848685e-08</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>27141.98536058238</v>
+        <v>40896.00557531467</v>
       </c>
       <c r="K12" t="n">
-        <v>31585.66044869844</v>
+        <v>45174.26510695512</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -943,7 +931,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>STO 28%</t>
+          <t>STO 20%</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -952,40 +940,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.818988182004031</v>
+        <v>0.8203644860177787</v>
       </c>
       <c r="D13" t="n">
-        <v>148960.5276624352</v>
+        <v>162607.2605506366</v>
       </c>
       <c r="E13" t="n">
-        <v>157611.113448975</v>
+        <v>171737.3938758353</v>
       </c>
       <c r="F13" t="n">
-        <v>148960.5276624352</v>
+        <v>162607.2605506366</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0002251929900182914</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01519392366619645</v>
+        <v>0.0008554807229606969</v>
       </c>
       <c r="I13" t="n">
-        <v>5.990133534486573</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>148966.5177959696</v>
+        <v>162607.2605506366</v>
       </c>
       <c r="K13" t="n">
-        <v>158015.2718184959</v>
+        <v>172071.7034960791</v>
       </c>
       <c r="L13" t="n">
-        <v>5.990133534486573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>STO 28%</t>
+          <t>STO 20%</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -994,40 +982,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.6424337212450967</v>
+        <v>0.6448107669284928</v>
       </c>
       <c r="D14" t="n">
-        <v>161919.080554914</v>
+        <v>174638.6696824649</v>
       </c>
       <c r="E14" t="n">
-        <v>171045.5144476688</v>
+        <v>183995.8327939629</v>
       </c>
       <c r="F14" t="n">
-        <v>161919.080554914</v>
+        <v>174638.6696824649</v>
       </c>
       <c r="G14" t="n">
-        <v>0.003638681865645757</v>
+        <v>0.006747746041263564</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02541833295776177</v>
+        <v>0.0304693341811362</v>
       </c>
       <c r="I14" t="n">
-        <v>96.78893762617751</v>
+        <v>128.2071747840084</v>
       </c>
       <c r="J14" t="n">
-        <v>162015.8694925402</v>
+        <v>174766.8768572489</v>
       </c>
       <c r="K14" t="n">
-        <v>171721.6421043453</v>
+        <v>184574.7501434044</v>
       </c>
       <c r="L14" t="n">
-        <v>96.78893762617751</v>
+        <v>128.2071747840084</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>STO 28%</t>
+          <t>STO 20%</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1036,40 +1024,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.4137511290085212</v>
+        <v>0.4162340699210331</v>
       </c>
       <c r="D15" t="n">
-        <v>176296.5980909674</v>
+        <v>189315.9191011487</v>
       </c>
       <c r="E15" t="n">
-        <v>186722.1192798289</v>
+        <v>199973.8401411661</v>
       </c>
       <c r="F15" t="n">
-        <v>176296.5980909674</v>
+        <v>189315.9191011487</v>
       </c>
       <c r="G15" t="n">
-        <v>0.009999999999999962</v>
+        <v>0.009999999999999948</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02555791163659549</v>
+        <v>0.02851716648952397</v>
       </c>
       <c r="I15" t="n">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="J15" t="n">
-        <v>176562.5980909674</v>
+        <v>189505.9191011487</v>
       </c>
       <c r="K15" t="n">
-        <v>187727.2781576052</v>
+        <v>200814.6505481557</v>
       </c>
       <c r="L15" t="n">
-        <v>266</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>STO 28%</t>
+          <t>STO 20%</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1078,40 +1066,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.3978056659871501</v>
+        <v>0.3997819587611955</v>
       </c>
       <c r="D16" t="n">
-        <v>178322.1049139856</v>
+        <v>190654.4956838812</v>
       </c>
       <c r="E16" t="n">
-        <v>188350.0163615045</v>
+        <v>200506.8873411788</v>
       </c>
       <c r="F16" t="n">
-        <v>178322.1049139856</v>
+        <v>190654.4956838812</v>
       </c>
       <c r="G16" t="n">
-        <v>0.009999999999999962</v>
+        <v>0.009999999999999948</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02977622793618</v>
+        <v>0.02603283119355758</v>
       </c>
       <c r="I16" t="n">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="J16" t="n">
-        <v>178588.1049139856</v>
+        <v>190844.4956838812</v>
       </c>
       <c r="K16" t="n">
-        <v>189608.510228343</v>
+        <v>201302.6643292067</v>
       </c>
       <c r="L16" t="n">
-        <v>266</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>STO 40%</t>
+          <t>STO 30%</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1120,31 +1108,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.9822810297230508</v>
+        <v>0.9823998781680922</v>
       </c>
       <c r="D17" t="n">
-        <v>22442.76022757287</v>
+        <v>25042.51045448255</v>
       </c>
       <c r="E17" t="n">
-        <v>26486.76921671257</v>
+        <v>28962.43863931916</v>
       </c>
       <c r="F17" t="n">
-        <v>22442.76022757287</v>
+        <v>25042.51045448255</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.115853029806395e-07</v>
+        <v>8.637751264280222e-08</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>22442.76022757287</v>
+        <v>25042.51045448255</v>
       </c>
       <c r="K17" t="n">
-        <v>26496.81951860415</v>
+        <v>28967.3621575398</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1153,7 +1141,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>STO 40%</t>
+          <t>STO 30%</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1162,31 +1150,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.8180918887281939</v>
+        <v>0.8193087133875201</v>
       </c>
       <c r="D18" t="n">
-        <v>126563.069173452</v>
+        <v>144603.1365325163</v>
       </c>
       <c r="E18" t="n">
-        <v>136632.6171306284</v>
+        <v>153762.9673849203</v>
       </c>
       <c r="F18" t="n">
-        <v>126563.069173452</v>
+        <v>144603.1365325163</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0004522596769755218</v>
+        <v>0.0006981603743953286</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>126563.069173452</v>
+        <v>144603.1365325163</v>
       </c>
       <c r="K18" t="n">
-        <v>136987.6970423034</v>
+        <v>154162.516996773</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1195,7 +1183,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>STO 40%</t>
+          <t>STO 30%</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1204,40 +1192,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.6405732997727202</v>
+        <v>0.6427598998968054</v>
       </c>
       <c r="D19" t="n">
-        <v>141866.911641108</v>
+        <v>157562.4111519972</v>
       </c>
       <c r="E19" t="n">
-        <v>150388.1095733548</v>
+        <v>166762.8468586411</v>
       </c>
       <c r="F19" t="n">
-        <v>141866.911641108</v>
+        <v>157562.4111519972</v>
       </c>
       <c r="G19" t="n">
-        <v>0.001818000672455269</v>
+        <v>0.005076662141898321</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02087837572585946</v>
+        <v>0.02600627866925671</v>
       </c>
       <c r="I19" t="n">
-        <v>69.08402555330039</v>
+        <v>144.6848710441027</v>
       </c>
       <c r="J19" t="n">
-        <v>141935.9956666613</v>
+        <v>157707.0960230413</v>
       </c>
       <c r="K19" t="n">
-        <v>151181.4878509375</v>
+        <v>167504.0258007149</v>
       </c>
       <c r="L19" t="n">
-        <v>69.08402555330039</v>
+        <v>144.6848710441027</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>STO 40%</t>
+          <t>STO 30%</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1246,76 +1234,1546 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.4132510512851231</v>
+        <v>0.4149351865911214</v>
       </c>
       <c r="D20" t="n">
-        <v>157549.5113830346</v>
+        <v>172945.8581367316</v>
       </c>
       <c r="E20" t="n">
-        <v>168442.6307095765</v>
+        <v>183242.5411396209</v>
       </c>
       <c r="F20" t="n">
-        <v>157549.5113830346</v>
+        <v>172945.8581367316</v>
       </c>
       <c r="G20" t="n">
-        <v>0.009999999999999972</v>
+        <v>0.009999999999999966</v>
       </c>
       <c r="H20" t="n">
-        <v>0.02681299252702149</v>
+        <v>0.02780314690171378</v>
       </c>
       <c r="I20" t="n">
-        <v>380</v>
+        <v>285</v>
       </c>
       <c r="J20" t="n">
-        <v>157929.5113830346</v>
+        <v>173230.8581367316</v>
       </c>
       <c r="K20" t="n">
-        <v>169960.0831057399</v>
+        <v>184441.9025431387</v>
       </c>
       <c r="L20" t="n">
-        <v>380</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>STO 30%</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.3976987158126158</v>
+      </c>
+      <c r="D21" t="n">
+        <v>174859.7426209327</v>
+      </c>
+      <c r="E21" t="n">
+        <v>184388.5694011861</v>
+      </c>
+      <c r="F21" t="n">
+        <v>174859.7426209327</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.009999999999999966</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.02664686514117624</v>
+      </c>
+      <c r="I21" t="n">
+        <v>285</v>
+      </c>
+      <c r="J21" t="n">
+        <v>175144.7426209327</v>
+      </c>
+      <c r="K21" t="n">
+        <v>185566.7377424146</v>
+      </c>
+      <c r="L21" t="n">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>STO 40%</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Perfect (100%)</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9822964280830577</v>
+      </c>
+      <c r="D22" t="n">
+        <v>22182.34956381647</v>
+      </c>
+      <c r="E22" t="n">
+        <v>26084.08657049516</v>
+      </c>
+      <c r="F22" t="n">
+        <v>22182.34956381647</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.316691068511743e-07</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>22182.34956381647</v>
+      </c>
+      <c r="K22" t="n">
+        <v>26093.02125988864</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>STO 40%</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Good (84%)</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8179252076687388</v>
+      </c>
+      <c r="D23" t="n">
+        <v>127362.3669099195</v>
+      </c>
+      <c r="E23" t="n">
+        <v>136596.5896504366</v>
+      </c>
+      <c r="F23" t="n">
+        <v>127362.3669099195</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0005420698599546758</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>127362.3669099195</v>
+      </c>
+      <c r="K23" t="n">
+        <v>137008.8925863509</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>STO 40%</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.6406059384893904</v>
+      </c>
+      <c r="D24" t="n">
+        <v>140760.4028490229</v>
+      </c>
+      <c r="E24" t="n">
+        <v>149888.0862924625</v>
+      </c>
+      <c r="F24" t="n">
+        <v>140760.4028490229</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.003611889829931812</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.02284161275671639</v>
+      </c>
+      <c r="I24" t="n">
+        <v>137.2518135374092</v>
+      </c>
+      <c r="J24" t="n">
+        <v>140897.6546625604</v>
+      </c>
+      <c r="K24" t="n">
+        <v>150756.0675772177</v>
+      </c>
+      <c r="L24" t="n">
+        <v>137.2518135374092</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>STO 40%</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Crisis (41%)</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.4133719277985113</v>
+      </c>
+      <c r="D25" t="n">
+        <v>157785.2937650022</v>
+      </c>
+      <c r="E25" t="n">
+        <v>168111.2442517451</v>
+      </c>
+      <c r="F25" t="n">
+        <v>157785.2937650022</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.009999999999999972</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.02800195033456983</v>
+      </c>
+      <c r="I25" t="n">
+        <v>380</v>
+      </c>
+      <c r="J25" t="n">
+        <v>158165.2937650022</v>
+      </c>
+      <c r="K25" t="n">
+        <v>169661.0816695258</v>
+      </c>
+      <c r="L25" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>STO 40%</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Extreme (15%)</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>0.39566075613007</v>
-      </c>
-      <c r="D21" t="n">
-        <v>158258.1410885907</v>
-      </c>
-      <c r="E21" t="n">
-        <v>168114.9121473802</v>
-      </c>
-      <c r="F21" t="n">
-        <v>158258.1410885907</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="C26" t="n">
+        <v>0.395758428480666</v>
+      </c>
+      <c r="D26" t="n">
+        <v>160267.2774719277</v>
+      </c>
+      <c r="E26" t="n">
+        <v>170117.4515447389</v>
+      </c>
+      <c r="F26" t="n">
+        <v>160267.2774719277</v>
+      </c>
+      <c r="G26" t="n">
         <v>0.009999999999999972</v>
       </c>
-      <c r="H21" t="n">
-        <v>0.02773341239515153</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="H26" t="n">
+        <v>0.02608599224900395</v>
+      </c>
+      <c r="I26" t="n">
         <v>380</v>
       </c>
-      <c r="J21" t="n">
-        <v>158638.1410885907</v>
-      </c>
-      <c r="K21" t="n">
-        <v>169643.3379247451</v>
-      </c>
-      <c r="L21" t="n">
+      <c r="J26" t="n">
+        <v>160647.2774719277</v>
+      </c>
+      <c r="K26" t="n">
+        <v>171596.3491747848</v>
+      </c>
+      <c r="L26" t="n">
         <v>380</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>STO 50%</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Perfect (100%)</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9823042160039729</v>
+      </c>
+      <c r="D27" t="n">
+        <v>22232.18919481748</v>
+      </c>
+      <c r="E27" t="n">
+        <v>26069.41953948234</v>
+      </c>
+      <c r="F27" t="n">
+        <v>22232.18919481748</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>9.546981833382252e-08</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>22232.18919481748</v>
+      </c>
+      <c r="K27" t="n">
+        <v>26077.23818839761</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>STO 50%</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Good (84%)</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.816552423855939</v>
+      </c>
+      <c r="D28" t="n">
+        <v>111289.0400180892</v>
+      </c>
+      <c r="E28" t="n">
+        <v>120711.5658613526</v>
+      </c>
+      <c r="F28" t="n">
+        <v>111289.0400180892</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0004517622083842146</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>111289.0400180892</v>
+      </c>
+      <c r="K28" t="n">
+        <v>121146.304615369</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>STO 50%</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.6383503733048143</v>
+      </c>
+      <c r="D29" t="n">
+        <v>126092.6208346788</v>
+      </c>
+      <c r="E29" t="n">
+        <v>135822.8460870237</v>
+      </c>
+      <c r="F29" t="n">
+        <v>126092.6208346788</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.002445667628871794</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0190244585150701</v>
+      </c>
+      <c r="I29" t="n">
+        <v>116.1692123714105</v>
+      </c>
+      <c r="J29" t="n">
+        <v>126208.7900470502</v>
+      </c>
+      <c r="K29" t="n">
+        <v>136726.5078664895</v>
+      </c>
+      <c r="L29" t="n">
+        <v>116.1692123714105</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>STO 50%</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Crisis (41%)</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.4117494483164099</v>
+      </c>
+      <c r="D30" t="n">
+        <v>143520.6108115466</v>
+      </c>
+      <c r="E30" t="n">
+        <v>153668.415460486</v>
+      </c>
+      <c r="F30" t="n">
+        <v>143520.6108115466</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.009999999999999979</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.02665460170830727</v>
+      </c>
+      <c r="I30" t="n">
+        <v>475</v>
+      </c>
+      <c r="J30" t="n">
+        <v>143995.6108115466</v>
+      </c>
+      <c r="K30" t="n">
+        <v>155415.2790282981</v>
+      </c>
+      <c r="L30" t="n">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>STO 50%</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.3928587121474819</v>
+      </c>
+      <c r="D31" t="n">
+        <v>146975.0169315495</v>
+      </c>
+      <c r="E31" t="n">
+        <v>156398.3479858215</v>
+      </c>
+      <c r="F31" t="n">
+        <v>146975.0169315495</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.009999999999999979</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.02605212975932222</v>
+      </c>
+      <c r="I31" t="n">
+        <v>475</v>
+      </c>
+      <c r="J31" t="n">
+        <v>147450.0169315495</v>
+      </c>
+      <c r="K31" t="n">
+        <v>158193.6651661173</v>
+      </c>
+      <c r="L31" t="n">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>STO 60%</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Perfect (100%)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.9823003113746814</v>
+      </c>
+      <c r="D32" t="n">
+        <v>22201.05001000441</v>
+      </c>
+      <c r="E32" t="n">
+        <v>25936.30925054703</v>
+      </c>
+      <c r="F32" t="n">
+        <v>22201.05001000441</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>6.445494113619784e-08</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>22201.05001000441</v>
+      </c>
+      <c r="K32" t="n">
+        <v>25945.05670684408</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>STO 60%</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Good (84%)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.8146707464080601</v>
+      </c>
+      <c r="D33" t="n">
+        <v>98018.24866542779</v>
+      </c>
+      <c r="E33" t="n">
+        <v>107364.8811597247</v>
+      </c>
+      <c r="F33" t="n">
+        <v>98018.24866542779</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0001686174436605307</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.007661778210130689</v>
+      </c>
+      <c r="I33" t="n">
+        <v>9.611194288650267</v>
+      </c>
+      <c r="J33" t="n">
+        <v>98027.85985971644</v>
+      </c>
+      <c r="K33" t="n">
+        <v>107801.6025177021</v>
+      </c>
+      <c r="L33" t="n">
+        <v>9.611194288650267</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>STO 60%</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.636023154145945</v>
+      </c>
+      <c r="D34" t="n">
+        <v>114611.1644843527</v>
+      </c>
+      <c r="E34" t="n">
+        <v>124082.1419396006</v>
+      </c>
+      <c r="F34" t="n">
+        <v>114611.1644843527</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.002582866780949531</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.01823412219913898</v>
+      </c>
+      <c r="I34" t="n">
+        <v>147.2234065141235</v>
+      </c>
+      <c r="J34" t="n">
+        <v>114758.3878908668</v>
+      </c>
+      <c r="K34" t="n">
+        <v>125121.4869049516</v>
+      </c>
+      <c r="L34" t="n">
+        <v>147.2234065141235</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>STO 60%</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Crisis (41%)</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.4100812208398443</v>
+      </c>
+      <c r="D35" t="n">
+        <v>131574.1039089632</v>
+      </c>
+      <c r="E35" t="n">
+        <v>141779.5353799223</v>
+      </c>
+      <c r="F35" t="n">
+        <v>131574.1039089632</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.009999999999999983</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.02787130769025539</v>
+      </c>
+      <c r="I35" t="n">
+        <v>570</v>
+      </c>
+      <c r="J35" t="n">
+        <v>132144.1039089632</v>
+      </c>
+      <c r="K35" t="n">
+        <v>143865.7294788843</v>
+      </c>
+      <c r="L35" t="n">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>STO 60%</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.3915008734621193</v>
+      </c>
+      <c r="D36" t="n">
+        <v>135379.3691644132</v>
+      </c>
+      <c r="E36" t="n">
+        <v>144729.7666906038</v>
+      </c>
+      <c r="F36" t="n">
+        <v>135379.3691644132</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.009999999999999983</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.02680295156451683</v>
+      </c>
+      <c r="I36" t="n">
+        <v>570</v>
+      </c>
+      <c r="J36" t="n">
+        <v>135949.3691644132</v>
+      </c>
+      <c r="K36" t="n">
+        <v>146877.0880855588</v>
+      </c>
+      <c r="L36" t="n">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>STO 70%</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Perfect (100%)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.9822962747789357</v>
+      </c>
+      <c r="D37" t="n">
+        <v>22256.61639978209</v>
+      </c>
+      <c r="E37" t="n">
+        <v>26053.70369614957</v>
+      </c>
+      <c r="F37" t="n">
+        <v>22256.61639978209</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>5.031997736436335e-08</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>22256.61639978209</v>
+      </c>
+      <c r="K37" t="n">
+        <v>26059.47314183014</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>STO 70%</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Good (84%)</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.8132523225048793</v>
+      </c>
+      <c r="D38" t="n">
+        <v>90497.94284797841</v>
+      </c>
+      <c r="E38" t="n">
+        <v>99617.90346535121</v>
+      </c>
+      <c r="F38" t="n">
+        <v>90497.94284797841</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.283777105676058e-05</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.007035882796587818</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.85371177527458</v>
+      </c>
+      <c r="J38" t="n">
+        <v>90498.79655975368</v>
+      </c>
+      <c r="K38" t="n">
+        <v>100085.7896713243</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.85371177527458</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>STO 70%</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.6333444350172656</v>
+      </c>
+      <c r="D39" t="n">
+        <v>106949.5867583067</v>
+      </c>
+      <c r="E39" t="n">
+        <v>116467.7184487021</v>
+      </c>
+      <c r="F39" t="n">
+        <v>106949.5867583067</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.001688889525773864</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.01502285435767735</v>
+      </c>
+      <c r="I39" t="n">
+        <v>112.3111534639621</v>
+      </c>
+      <c r="J39" t="n">
+        <v>107061.8979117706</v>
+      </c>
+      <c r="K39" t="n">
+        <v>117466.7382634876</v>
+      </c>
+      <c r="L39" t="n">
+        <v>112.3111534639621</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>STO 70%</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Crisis (41%)</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.4081732376561001</v>
+      </c>
+      <c r="D40" t="n">
+        <v>122972.7693829857</v>
+      </c>
+      <c r="E40" t="n">
+        <v>132853.7048408993</v>
+      </c>
+      <c r="F40" t="n">
+        <v>122972.7693829857</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.008340692792541324</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.02584878665312741</v>
+      </c>
+      <c r="I40" t="n">
+        <v>554.6560707039989</v>
+      </c>
+      <c r="J40" t="n">
+        <v>123527.4254536897</v>
+      </c>
+      <c r="K40" t="n">
+        <v>134572.6491533323</v>
+      </c>
+      <c r="L40" t="n">
+        <v>554.6560707039989</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>STO 70%</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.3888225958568781</v>
+      </c>
+      <c r="D41" t="n">
+        <v>126365.6682390267</v>
+      </c>
+      <c r="E41" t="n">
+        <v>135789.2560772185</v>
+      </c>
+      <c r="F41" t="n">
+        <v>126365.6682390267</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.009999999999999985</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.02642305678181485</v>
+      </c>
+      <c r="I41" t="n">
+        <v>665</v>
+      </c>
+      <c r="J41" t="n">
+        <v>127030.6682390267</v>
+      </c>
+      <c r="K41" t="n">
+        <v>138132.2853760054</v>
+      </c>
+      <c r="L41" t="n">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>STO 80%</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Perfect (100%)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.9823085573356055</v>
+      </c>
+      <c r="D42" t="n">
+        <v>22215.35602766756</v>
+      </c>
+      <c r="E42" t="n">
+        <v>26069.91417364724</v>
+      </c>
+      <c r="F42" t="n">
+        <v>22215.35602766756</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5.729529948129348e-08</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>22215.35602766756</v>
+      </c>
+      <c r="K42" t="n">
+        <v>26076.93746842236</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>STO 80%</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Good (84%)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.8118054407757335</v>
+      </c>
+      <c r="D43" t="n">
+        <v>87077.37098971011</v>
+      </c>
+      <c r="E43" t="n">
+        <v>96323.93929162416</v>
+      </c>
+      <c r="F43" t="n">
+        <v>87077.37098971011</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.0003041299173619978</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>87077.37098971011</v>
+      </c>
+      <c r="K43" t="n">
+        <v>96793.16125101336</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>STO 80%</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.6311180811697442</v>
+      </c>
+      <c r="D44" t="n">
+        <v>102772.2714616133</v>
+      </c>
+      <c r="E44" t="n">
+        <v>112584.6735536575</v>
+      </c>
+      <c r="F44" t="n">
+        <v>102772.2714616133</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.001463912531255452</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.01374754027850064</v>
+      </c>
+      <c r="I44" t="n">
+        <v>111.2573523754145</v>
+      </c>
+      <c r="J44" t="n">
+        <v>102883.5288139887</v>
+      </c>
+      <c r="K44" t="n">
+        <v>113629.4866148235</v>
+      </c>
+      <c r="L44" t="n">
+        <v>111.2573523754145</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>STO 80%</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Crisis (41%)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.4061554177879393</v>
+      </c>
+      <c r="D45" t="n">
+        <v>117333.9544135958</v>
+      </c>
+      <c r="E45" t="n">
+        <v>127172.120514647</v>
+      </c>
+      <c r="F45" t="n">
+        <v>117333.9544135958</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.007646529222394215</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.02393377515488033</v>
+      </c>
+      <c r="I45" t="n">
+        <v>581.1362209019611</v>
+      </c>
+      <c r="J45" t="n">
+        <v>117915.0906344978</v>
+      </c>
+      <c r="K45" t="n">
+        <v>128991.0874264179</v>
+      </c>
+      <c r="L45" t="n">
+        <v>581.1362209019611</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>STO 80%</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.3863281817383744</v>
+      </c>
+      <c r="D46" t="n">
+        <v>119791.2097734209</v>
+      </c>
+      <c r="E46" t="n">
+        <v>129396.6425315579</v>
+      </c>
+      <c r="F46" t="n">
+        <v>119791.2097734209</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.009999999999999986</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.02636277817980344</v>
+      </c>
+      <c r="I46" t="n">
+        <v>760</v>
+      </c>
+      <c r="J46" t="n">
+        <v>120551.2097734209</v>
+      </c>
+      <c r="K46" t="n">
+        <v>131928.3526907519</v>
+      </c>
+      <c r="L46" t="n">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>STO 90%</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Perfect (100%)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.9822842521349827</v>
+      </c>
+      <c r="D47" t="n">
+        <v>22318.40553299419</v>
+      </c>
+      <c r="E47" t="n">
+        <v>26326.38151942581</v>
+      </c>
+      <c r="F47" t="n">
+        <v>22318.40553299419</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.169891553684422e-08</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>22318.40553299419</v>
+      </c>
+      <c r="K47" t="n">
+        <v>26333.15716262181</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>STO 90%</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Good (84%)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.810933824589541</v>
+      </c>
+      <c r="D48" t="n">
+        <v>87090.64556112424</v>
+      </c>
+      <c r="E48" t="n">
+        <v>96286.44871619518</v>
+      </c>
+      <c r="F48" t="n">
+        <v>87090.64556112424</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0002818094190528012</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>87090.64556112424</v>
+      </c>
+      <c r="K48" t="n">
+        <v>96773.99839909714</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>STO 90%</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.6287597988077379</v>
+      </c>
+      <c r="D49" t="n">
+        <v>102888.996522784</v>
+      </c>
+      <c r="E49" t="n">
+        <v>112861.2090796915</v>
+      </c>
+      <c r="F49" t="n">
+        <v>102888.996522784</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.001493914163133041</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.01256095915155896</v>
+      </c>
+      <c r="I49" t="n">
+        <v>127.7296609478751</v>
+      </c>
+      <c r="J49" t="n">
+        <v>103016.7261837318</v>
+      </c>
+      <c r="K49" t="n">
+        <v>113935.1710871498</v>
+      </c>
+      <c r="L49" t="n">
+        <v>127.7296609478751</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>STO 90%</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Crisis (41%)</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.404052884385442</v>
+      </c>
+      <c r="D50" t="n">
+        <v>116281.8403090782</v>
+      </c>
+      <c r="E50" t="n">
+        <v>126159.5748279626</v>
+      </c>
+      <c r="F50" t="n">
+        <v>116281.8403090782</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.006689930791354573</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.02205804076443678</v>
+      </c>
+      <c r="I50" t="n">
+        <v>571.9890826608167</v>
+      </c>
+      <c r="J50" t="n">
+        <v>116853.8293917391</v>
+      </c>
+      <c r="K50" t="n">
+        <v>128045.5373133219</v>
+      </c>
+      <c r="L50" t="n">
+        <v>571.9890826608167</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>STO 90%</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.3829876268000175</v>
+      </c>
+      <c r="D51" t="n">
+        <v>118155.1128195211</v>
+      </c>
+      <c r="E51" t="n">
+        <v>128044.8547130095</v>
+      </c>
+      <c r="F51" t="n">
+        <v>118155.1128195211</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.009473684210526304</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.0265610113939098</v>
+      </c>
+      <c r="I51" t="n">
+        <v>810</v>
+      </c>
+      <c r="J51" t="n">
+        <v>118965.1128195211</v>
+      </c>
+      <c r="K51" t="n">
+        <v>130847.081723254</v>
+      </c>
+      <c r="L51" t="n">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>STO 100%</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Perfect (100%)</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.9822975098150272</v>
+      </c>
+      <c r="D52" t="n">
+        <v>22193.14004564247</v>
+      </c>
+      <c r="E52" t="n">
+        <v>25926.3768606268</v>
+      </c>
+      <c r="F52" t="n">
+        <v>22193.14004564247</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2.499233058783741e-08</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>22193.14004564247</v>
+      </c>
+      <c r="K52" t="n">
+        <v>25932.31253914141</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>STO 100%</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Good (84%)</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.810857542548077</v>
+      </c>
+      <c r="D53" t="n">
+        <v>87511.00081914029</v>
+      </c>
+      <c r="E53" t="n">
+        <v>97206.18430808585</v>
+      </c>
+      <c r="F53" t="n">
+        <v>87511.00081914029</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0004430097820887882</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.005915312596683046</v>
+      </c>
+      <c r="I53" t="n">
+        <v>42.08592929843493</v>
+      </c>
+      <c r="J53" t="n">
+        <v>87553.08674843873</v>
+      </c>
+      <c r="K53" t="n">
+        <v>97768.13900477074</v>
+      </c>
+      <c r="L53" t="n">
+        <v>42.08592929843493</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>STO 100%</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.6286366996481322</v>
+      </c>
+      <c r="D54" t="n">
+        <v>102973.2160218199</v>
+      </c>
+      <c r="E54" t="n">
+        <v>113063.5702672666</v>
+      </c>
+      <c r="F54" t="n">
+        <v>102973.2160218199</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.001166522790216816</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.01084450805516112</v>
+      </c>
+      <c r="I54" t="n">
+        <v>110.8196650705977</v>
+      </c>
+      <c r="J54" t="n">
+        <v>103084.0356868905</v>
+      </c>
+      <c r="K54" t="n">
+        <v>114093.7985325069</v>
+      </c>
+      <c r="L54" t="n">
+        <v>110.8196650705977</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>STO 100%</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Crisis (41%)</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.4038805819190628</v>
+      </c>
+      <c r="D55" t="n">
+        <v>116921.6711202066</v>
+      </c>
+      <c r="E55" t="n">
+        <v>126923.7107058312</v>
+      </c>
+      <c r="F55" t="n">
+        <v>116921.6711202066</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.006069955720666379</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.01971703826148388</v>
+      </c>
+      <c r="I55" t="n">
+        <v>576.6457934633067</v>
+      </c>
+      <c r="J55" t="n">
+        <v>117498.3169136699</v>
+      </c>
+      <c r="K55" t="n">
+        <v>128796.8293406722</v>
+      </c>
+      <c r="L55" t="n">
+        <v>576.6457934633067</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>STO 100%</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.382760901984212</v>
+      </c>
+      <c r="D56" t="n">
+        <v>118599.2484690619</v>
+      </c>
+      <c r="E56" t="n">
+        <v>128726.3404009201</v>
+      </c>
+      <c r="F56" t="n">
+        <v>118599.2484690619</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.008408258069344339</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.02368226104552376</v>
+      </c>
+      <c r="I56" t="n">
+        <v>798.784516587713</v>
+      </c>
+      <c r="J56" t="n">
+        <v>119398.0329856496</v>
+      </c>
+      <c r="K56" t="n">
+        <v>130976.1552002449</v>
+      </c>
+      <c r="L56" t="n">
+        <v>798.784516587713</v>
       </c>
     </row>
   </sheetData>
@@ -1329,7 +2787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1338,52 +2796,52 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Scenario</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>STO_Ratio</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Market</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Financial_VaR95</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Financial_ES95</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Retail_VaR95</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Extended_System_VaR95</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Extended_System_ES95</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>System_Risk_Change</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>System_Risk_Change_Pct</t>
         </is>
@@ -1406,19 +2864,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>168196.9650074969</v>
+        <v>167794.0783499571</v>
       </c>
       <c r="E2" t="n">
-        <v>172401.0568401012</v>
+        <v>172064.1631961356</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>168196.9650074969</v>
+        <v>167794.0783499571</v>
       </c>
       <c r="H2" t="n">
-        <v>172401.0568401012</v>
+        <v>172064.1631961356</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1444,19 +2902,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>233901.5779158411</v>
+        <v>233566.6841971613</v>
       </c>
       <c r="E3" t="n">
-        <v>242897.6687006156</v>
+        <v>242813.8000373383</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>233901.5779158411</v>
+        <v>233566.6841971613</v>
       </c>
       <c r="H3" t="n">
-        <v>242897.6687006156</v>
+        <v>242813.8000373383</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1482,19 +2940,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>245171.0488656423</v>
+        <v>245329.1740498592</v>
       </c>
       <c r="E4" t="n">
-        <v>254223.9309958674</v>
+        <v>254264.9052000773</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>245171.0488656423</v>
+        <v>245329.1740498592</v>
       </c>
       <c r="H4" t="n">
-        <v>254223.9309958674</v>
+        <v>254264.9052000773</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1520,19 +2978,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>256999.9993728732</v>
+        <v>256313.7908175068</v>
       </c>
       <c r="E5" t="n">
-        <v>265842.3453517665</v>
+        <v>265143.2613282698</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>256999.9993728732</v>
+        <v>256313.7908175068</v>
       </c>
       <c r="H5" t="n">
-        <v>265842.3453517665</v>
+        <v>265143.2613282698</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1558,19 +3016,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>257109.3957698636</v>
+        <v>256877.076766068</v>
       </c>
       <c r="E6" t="n">
-        <v>265011.56770623</v>
+        <v>265846.813372787</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>257109.3957698636</v>
+        <v>256877.076766068</v>
       </c>
       <c r="H6" t="n">
-        <v>265011.56770623</v>
+        <v>265846.813372787</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1582,12 +3040,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>STO 15%_Perfect</t>
+          <t>STO 10%_Perfect</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>STO 15%</t>
+          <t>STO 10%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1596,36 +3054,36 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>49647.02010339057</v>
+        <v>59271.42865686108</v>
       </c>
       <c r="E7" t="n">
-        <v>54320.18212046334</v>
+        <v>63845.1240352085</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>270.9863674873552</v>
+        <v>266.9466009954146</v>
       </c>
       <c r="H7" t="n">
-        <v>322.7398951582833</v>
+        <v>314.6020929747725</v>
       </c>
       <c r="I7" t="n">
-        <v>-49376.03373590321</v>
+        <v>-59004.48205586566</v>
       </c>
       <c r="J7" t="n">
-        <v>-99.45417395258966</v>
+        <v>-99.54962010019896</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>STO 15%_Good</t>
+          <t>STO 10%_Good</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>STO 15%</t>
+          <t>STO 10%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1634,36 +3092,36 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>172015.5431594522</v>
+        <v>180973.9673924469</v>
       </c>
       <c r="E8" t="n">
-        <v>181065.9335056128</v>
+        <v>190332.2453483027</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2620.610000382891</v>
+        <v>2582.94634639152</v>
       </c>
       <c r="H8" t="n">
-        <v>3114.578274378942</v>
+        <v>3177.054483887992</v>
       </c>
       <c r="I8" t="n">
-        <v>-169394.9331590693</v>
+        <v>-178391.0210460553</v>
       </c>
       <c r="J8" t="n">
-        <v>-98.47652720664105</v>
+        <v>-98.57275254357974</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>STO 15%_Recession</t>
+          <t>STO 10%_Recession</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>STO 15%</t>
+          <t>STO 10%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1672,36 +3130,36 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>184698.1851473628</v>
+        <v>192732.0306045096</v>
       </c>
       <c r="E9" t="n">
-        <v>193619.9572859741</v>
+        <v>202159.1971664443</v>
       </c>
       <c r="F9" t="n">
-        <v>50.93101968973433</v>
+        <v>95</v>
       </c>
       <c r="G9" t="n">
-        <v>5805.438496430266</v>
+        <v>5873.04431455708</v>
       </c>
       <c r="H9" t="n">
-        <v>6917.193505474384</v>
+        <v>7124.830000624667</v>
       </c>
       <c r="I9" t="n">
-        <v>-178892.7466509326</v>
+        <v>-186858.9862899525</v>
       </c>
       <c r="J9" t="n">
-        <v>-96.85679721660591</v>
+        <v>-96.95274091382937</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>STO 15%_Crisis</t>
+          <t>STO 10%_Crisis</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>STO 15%</t>
+          <t>STO 10%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1710,36 +3168,36 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>198384.415517818</v>
+        <v>206515.2702517318</v>
       </c>
       <c r="E10" t="n">
-        <v>208551.2035332875</v>
+        <v>217072.3921672027</v>
       </c>
       <c r="F10" t="n">
-        <v>142.5</v>
+        <v>95</v>
       </c>
       <c r="G10" t="n">
-        <v>11585.3649157984</v>
+        <v>11603.79536792938</v>
       </c>
       <c r="H10" t="n">
-        <v>14397.15782221368</v>
+        <v>14316.89454647986</v>
       </c>
       <c r="I10" t="n">
-        <v>-186799.0506020196</v>
+        <v>-194911.4748838024</v>
       </c>
       <c r="J10" t="n">
-        <v>-94.16014363549749</v>
+        <v>-94.38114413825916</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>STO 15%_Extreme</t>
+          <t>STO 10%_Extreme</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>STO 15%</t>
+          <t>STO 10%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1748,36 +3206,36 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>198564.5707349211</v>
+        <v>207225.798139347</v>
       </c>
       <c r="E11" t="n">
-        <v>208928.6306521259</v>
+        <v>216829.6574295422</v>
       </c>
       <c r="F11" t="n">
-        <v>142.5</v>
+        <v>95</v>
       </c>
       <c r="G11" t="n">
-        <v>11888.86068704813</v>
+        <v>11865.13451700656</v>
       </c>
       <c r="H11" t="n">
-        <v>14212.8900226742</v>
+        <v>14706.3968058133</v>
       </c>
       <c r="I11" t="n">
-        <v>-186675.7100478729</v>
+        <v>-195360.6636223404</v>
       </c>
       <c r="J11" t="n">
-        <v>-94.01259719040237</v>
+        <v>-94.27429662544817</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>STO 28%_Perfect</t>
+          <t>STO 20%_Perfect</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>STO 28%</t>
+          <t>STO 20%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1786,36 +3244,36 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>27141.98536058238</v>
+        <v>40896.00557531467</v>
       </c>
       <c r="E12" t="n">
-        <v>31580.30461878086</v>
+        <v>45169.3126231592</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>303.998684204323</v>
+        <v>284.5796937544704</v>
       </c>
       <c r="H12" t="n">
-        <v>342.9388062131835</v>
+        <v>331.6166731147546</v>
       </c>
       <c r="I12" t="n">
-        <v>-26837.98667637806</v>
+        <v>-40611.42588156019</v>
       </c>
       <c r="J12" t="n">
-        <v>-98.87996887417893</v>
+        <v>-99.30413816764968</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>STO 28%_Good</t>
+          <t>STO 20%_Good</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>STO 28%</t>
+          <t>STO 20%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1824,36 +3282,36 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>148960.5276624352</v>
+        <v>162607.2605506366</v>
       </c>
       <c r="E13" t="n">
-        <v>157611.113448975</v>
+        <v>171737.3938758353</v>
       </c>
       <c r="F13" t="n">
-        <v>5.990133534486573</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2767.008019456496</v>
+        <v>2655.162030329833</v>
       </c>
       <c r="H13" t="n">
-        <v>3350.906650811955</v>
+        <v>3244.351749709988</v>
       </c>
       <c r="I13" t="n">
-        <v>-146193.5196429787</v>
+        <v>-159952.0985203068</v>
       </c>
       <c r="J13" t="n">
-        <v>-98.1424555465278</v>
+        <v>-98.36713193412233</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>STO 28%_Recession</t>
+          <t>STO 20%_Recession</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>STO 28%</t>
+          <t>STO 20%</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1862,36 +3320,36 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>161919.080554914</v>
+        <v>174638.6696824649</v>
       </c>
       <c r="E14" t="n">
-        <v>171045.5144476688</v>
+        <v>183995.8327939629</v>
       </c>
       <c r="F14" t="n">
-        <v>96.78893762617751</v>
+        <v>128.2071747840084</v>
       </c>
       <c r="G14" t="n">
-        <v>6102.241780644975</v>
+        <v>5980.438482597251</v>
       </c>
       <c r="H14" t="n">
-        <v>7093.433165684107</v>
+        <v>7126.093157966325</v>
       </c>
       <c r="I14" t="n">
-        <v>-155816.8387742691</v>
+        <v>-168658.2311998676</v>
       </c>
       <c r="J14" t="n">
-        <v>-96.23130161082193</v>
+        <v>-96.57553593744666</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>STO 28%_Crisis</t>
+          <t>STO 20%_Crisis</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>STO 28%</t>
+          <t>STO 20%</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1900,36 +3358,36 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>176296.5980909674</v>
+        <v>189315.9191011487</v>
       </c>
       <c r="E15" t="n">
-        <v>186722.1192798289</v>
+        <v>199973.8401411661</v>
       </c>
       <c r="F15" t="n">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="G15" t="n">
-        <v>11699.76740833461</v>
+        <v>11598.22837354263</v>
       </c>
       <c r="H15" t="n">
-        <v>13817.51132827908</v>
+        <v>14111.6526700002</v>
       </c>
       <c r="I15" t="n">
-        <v>-164596.8306826328</v>
+        <v>-177717.6907276061</v>
       </c>
       <c r="J15" t="n">
-        <v>-93.36358867100904</v>
+        <v>-93.87361167058231</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>STO 28%_Extreme</t>
+          <t>STO 20%_Extreme</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>STO 28%</t>
+          <t>STO 20%</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1938,36 +3396,36 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>178322.1049139856</v>
+        <v>190654.4956838812</v>
       </c>
       <c r="E16" t="n">
-        <v>188350.0163615045</v>
+        <v>200506.8873411788</v>
       </c>
       <c r="F16" t="n">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="G16" t="n">
-        <v>11840.15791563312</v>
+        <v>11850.16833406845</v>
       </c>
       <c r="H16" t="n">
-        <v>14746.62291859462</v>
+        <v>14322.59724608161</v>
       </c>
       <c r="I16" t="n">
-        <v>-166481.9469983525</v>
+        <v>-178804.3273498127</v>
       </c>
       <c r="J16" t="n">
-        <v>-93.3602410529282</v>
+        <v>-93.78447998744448</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>STO 40%_Perfect</t>
+          <t>STO 30%_Perfect</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>STO 40%</t>
+          <t>STO 30%</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1976,36 +3434,36 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>22442.76022757287</v>
+        <v>25042.51045448255</v>
       </c>
       <c r="E17" t="n">
-        <v>26486.76921671257</v>
+        <v>28962.43863931916</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>319.5870358196692</v>
+        <v>313.4098274885823</v>
       </c>
       <c r="H17" t="n">
-        <v>368.7848616486021</v>
+        <v>356.9748344671001</v>
       </c>
       <c r="I17" t="n">
-        <v>-22123.1731917532</v>
+        <v>-24729.10062699396</v>
       </c>
       <c r="J17" t="n">
-        <v>-98.57599050839107</v>
+        <v>-98.74848878247155</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>STO 40%_Good</t>
+          <t>STO 30%_Good</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>STO 40%</t>
+          <t>STO 30%</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2014,36 +3472,36 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>126563.069173452</v>
+        <v>144603.1365325163</v>
       </c>
       <c r="E18" t="n">
-        <v>136632.6171306284</v>
+        <v>153762.9673849203</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2898.478851248988</v>
+        <v>2788.883333039966</v>
       </c>
       <c r="H18" t="n">
-        <v>3400.609545328487</v>
+        <v>3373.587631224773</v>
       </c>
       <c r="I18" t="n">
-        <v>-123664.590322203</v>
+        <v>-141814.2531994763</v>
       </c>
       <c r="J18" t="n">
-        <v>-97.70985416979997</v>
+        <v>-98.07135349902121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>STO 40%_Recession</t>
+          <t>STO 30%_Recession</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>STO 40%</t>
+          <t>STO 30%</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2052,36 +3510,36 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>141866.911641108</v>
+        <v>157562.4111519972</v>
       </c>
       <c r="E19" t="n">
-        <v>150388.1095733548</v>
+        <v>166762.8468586411</v>
       </c>
       <c r="F19" t="n">
-        <v>69.08402555330039</v>
+        <v>144.6848710441027</v>
       </c>
       <c r="G19" t="n">
-        <v>6344.325924891871</v>
+        <v>6145.976335327742</v>
       </c>
       <c r="H19" t="n">
-        <v>7282.508361842371</v>
+        <v>7173.298134666935</v>
       </c>
       <c r="I19" t="n">
-        <v>-135522.5857162161</v>
+        <v>-151416.4348166695</v>
       </c>
       <c r="J19" t="n">
-        <v>-95.52797347069793</v>
+        <v>-96.09933848410148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>STO 40%_Crisis</t>
+          <t>STO 30%_Crisis</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>STO 40%</t>
+          <t>STO 30%</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2090,63 +3548,1393 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>157549.5113830346</v>
+        <v>172945.8581367316</v>
       </c>
       <c r="E20" t="n">
-        <v>168442.6307095765</v>
+        <v>183242.5411396209</v>
       </c>
       <c r="F20" t="n">
-        <v>380</v>
+        <v>285</v>
       </c>
       <c r="G20" t="n">
-        <v>11692.12245036755</v>
+        <v>11595.2263801448</v>
       </c>
       <c r="H20" t="n">
-        <v>13589.19317543773</v>
+        <v>13803.34818437943</v>
       </c>
       <c r="I20" t="n">
-        <v>-145857.388932667</v>
+        <v>-161350.6317565868</v>
       </c>
       <c r="J20" t="n">
-        <v>-92.57876311533481</v>
+        <v>-93.29545876086979</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>STO 30%_Extreme</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>STO 30%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>174859.7426209327</v>
+      </c>
+      <c r="E21" t="n">
+        <v>184388.5694011861</v>
+      </c>
+      <c r="F21" t="n">
+        <v>285</v>
+      </c>
+      <c r="G21" t="n">
+        <v>11912.1603842752</v>
+      </c>
+      <c r="H21" t="n">
+        <v>14268.55926771923</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-162947.5822366575</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-93.18759126273061</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>STO 40%_Perfect</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>STO 40%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Perfect (100%)</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>22182.34956381647</v>
+      </c>
+      <c r="E22" t="n">
+        <v>26084.08657049516</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>326.4054747545112</v>
+      </c>
+      <c r="H22" t="n">
+        <v>369.4110233428234</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-21855.94408906196</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-98.52853515893132</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>STO 40%_Good</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>STO 40%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Good (84%)</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>127362.3669099195</v>
+      </c>
+      <c r="E23" t="n">
+        <v>136596.5896504366</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2933.104680661179</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3516.645432927161</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-124429.2622292583</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-97.69703975214618</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>STO 40%_Recession</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>STO 40%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>140760.4028490229</v>
+      </c>
+      <c r="E24" t="n">
+        <v>149888.0862924625</v>
+      </c>
+      <c r="F24" t="n">
+        <v>137.2518135374092</v>
+      </c>
+      <c r="G24" t="n">
+        <v>6312.297732371985</v>
+      </c>
+      <c r="H24" t="n">
+        <v>7347.054966331203</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-134448.105116651</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-95.51557284249716</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>STO 40%_Crisis</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>STO 40%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Crisis (41%)</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>157785.2937650022</v>
+      </c>
+      <c r="E25" t="n">
+        <v>168111.2442517451</v>
+      </c>
+      <c r="F25" t="n">
+        <v>380</v>
+      </c>
+      <c r="G25" t="n">
+        <v>11669.07207373685</v>
+      </c>
+      <c r="H25" t="n">
+        <v>13645.31937593677</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-146116.2216912653</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-92.60446154689407</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>STO 40%_Extreme</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>STO 40%</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Extreme (15%)</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>158258.1410885907</v>
-      </c>
-      <c r="E21" t="n">
-        <v>168114.9121473802</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="D26" t="n">
+        <v>160267.2774719277</v>
+      </c>
+      <c r="E26" t="n">
+        <v>170117.4515447389</v>
+      </c>
+      <c r="F26" t="n">
         <v>380</v>
       </c>
-      <c r="G21" t="n">
-        <v>12028.48361317266</v>
-      </c>
-      <c r="H21" t="n">
-        <v>14257.03923946471</v>
-      </c>
-      <c r="I21" t="n">
-        <v>-146229.657475418</v>
-      </c>
-      <c r="J21" t="n">
-        <v>-92.39945349387159</v>
+      <c r="G26" t="n">
+        <v>11941.81701837292</v>
+      </c>
+      <c r="H26" t="n">
+        <v>13946.68560556881</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-148325.4604535548</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-92.54881145624712</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>STO 50%_Perfect</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>STO 50%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Perfect (100%)</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>22232.18919481748</v>
+      </c>
+      <c r="E27" t="n">
+        <v>26069.41953948234</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>328.4668164976878</v>
+      </c>
+      <c r="H27" t="n">
+        <v>372.4494689941675</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-21903.72237831979</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-98.52256197705329</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>STO 50%_Good</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>STO 50%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Good (84%)</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>111289.0400180892</v>
+      </c>
+      <c r="E28" t="n">
+        <v>120711.5658613526</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3087.85390245218</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3678.517789003718</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-108201.186115637</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-97.22537466227557</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>STO 50%_Recession</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>STO 50%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>126092.6208346788</v>
+      </c>
+      <c r="E29" t="n">
+        <v>135822.8460870237</v>
+      </c>
+      <c r="F29" t="n">
+        <v>116.1692123714105</v>
+      </c>
+      <c r="G29" t="n">
+        <v>6534.605201102023</v>
+      </c>
+      <c r="H29" t="n">
+        <v>7510.237260152455</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-119558.0156335768</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-94.81761489463399</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>STO 50%_Crisis</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>STO 50%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Crisis (41%)</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>143520.6108115466</v>
+      </c>
+      <c r="E30" t="n">
+        <v>153668.415460486</v>
+      </c>
+      <c r="F30" t="n">
+        <v>475</v>
+      </c>
+      <c r="G30" t="n">
+        <v>11729.13938705418</v>
+      </c>
+      <c r="H30" t="n">
+        <v>13385.9597421965</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-131791.4714244924</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-91.82755750499459</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>STO 50%_Extreme</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>STO 50%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>146975.0169315495</v>
+      </c>
+      <c r="E31" t="n">
+        <v>156398.3479858215</v>
+      </c>
+      <c r="F31" t="n">
+        <v>475</v>
+      </c>
+      <c r="G31" t="n">
+        <v>12027.31388425529</v>
+      </c>
+      <c r="H31" t="n">
+        <v>13886.96253772634</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-134947.7030472942</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-91.81676305582141</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>STO 60%_Perfect</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>STO 60%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Perfect (100%)</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>22201.05001000441</v>
+      </c>
+      <c r="E32" t="n">
+        <v>25936.30925054703</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>329.0995096687755</v>
+      </c>
+      <c r="H32" t="n">
+        <v>370.3518324235495</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-21871.95050033564</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-98.51763988856169</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>STO 60%_Good</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>STO 60%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Good (84%)</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>98018.24866542779</v>
+      </c>
+      <c r="E33" t="n">
+        <v>107364.8811597247</v>
+      </c>
+      <c r="F33" t="n">
+        <v>9.611194288650267</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3257.018850433661</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3825.769046412041</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-94761.22981499413</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-96.67713013160329</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>STO 60%_Recession</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>STO 60%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>114611.1644843527</v>
+      </c>
+      <c r="E34" t="n">
+        <v>124082.1419396006</v>
+      </c>
+      <c r="F34" t="n">
+        <v>147.2234065141235</v>
+      </c>
+      <c r="G34" t="n">
+        <v>6777.74221269898</v>
+      </c>
+      <c r="H34" t="n">
+        <v>7853.726478378926</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-107833.4222716537</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-94.08631589846178</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>STO 60%_Crisis</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>STO 60%</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Crisis (41%)</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>131574.1039089632</v>
+      </c>
+      <c r="E35" t="n">
+        <v>141779.5353799223</v>
+      </c>
+      <c r="F35" t="n">
+        <v>570</v>
+      </c>
+      <c r="G35" t="n">
+        <v>11803.24282164035</v>
+      </c>
+      <c r="H35" t="n">
+        <v>13394.20436329658</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-119770.8610873229</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-91.02920523797975</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>STO 60%_Extreme</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>STO 60%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>135379.3691644132</v>
+      </c>
+      <c r="E36" t="n">
+        <v>144729.7666906038</v>
+      </c>
+      <c r="F36" t="n">
+        <v>570</v>
+      </c>
+      <c r="G36" t="n">
+        <v>12200.53210856076</v>
+      </c>
+      <c r="H36" t="n">
+        <v>13939.88261291601</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-123178.8370558525</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-90.98789410538348</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>STO 70%_Perfect</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>STO 70%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Perfect (100%)</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>22256.61639978209</v>
+      </c>
+      <c r="E37" t="n">
+        <v>26053.70369614957</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>328.8117345773955</v>
+      </c>
+      <c r="H37" t="n">
+        <v>371.3048352881999</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-21927.80466520469</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-98.52263377024094</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>STO 70%_Good</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>STO 70%</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Good (84%)</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>90497.94284797841</v>
+      </c>
+      <c r="E38" t="n">
+        <v>99617.90346535121</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.85371177527458</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3445.631195156194</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4040.420675382233</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-87052.31165282222</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-96.19258616635707</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>STO 70%_Recession</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>STO 70%</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>106949.5867583067</v>
+      </c>
+      <c r="E39" t="n">
+        <v>116467.7184487021</v>
+      </c>
+      <c r="F39" t="n">
+        <v>112.3111534639621</v>
+      </c>
+      <c r="G39" t="n">
+        <v>6996.752147912638</v>
+      </c>
+      <c r="H39" t="n">
+        <v>8018.968540503153</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-99952.83461039404</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-93.4578969774568</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>STO 70%_Crisis</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>STO 70%</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Crisis (41%)</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>122972.7693829857</v>
+      </c>
+      <c r="E40" t="n">
+        <v>132853.7048408993</v>
+      </c>
+      <c r="F40" t="n">
+        <v>554.6560707039989</v>
+      </c>
+      <c r="G40" t="n">
+        <v>11971.86526164493</v>
+      </c>
+      <c r="H40" t="n">
+        <v>13382.49422764043</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-111000.9041213408</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-90.26462092240941</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>STO 70%_Extreme</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>STO 70%</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>126365.6682390267</v>
+      </c>
+      <c r="E41" t="n">
+        <v>135789.2560772185</v>
+      </c>
+      <c r="F41" t="n">
+        <v>665</v>
+      </c>
+      <c r="G41" t="n">
+        <v>12360.56721040267</v>
+      </c>
+      <c r="H41" t="n">
+        <v>13898.38479677247</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-114005.101028624</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-90.21841344832518</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>STO 80%_Perfect</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>STO 80%</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Perfect (100%)</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>22215.35602766756</v>
+      </c>
+      <c r="E42" t="n">
+        <v>26069.91417364724</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>326.4413446932256</v>
+      </c>
+      <c r="H42" t="n">
+        <v>370.1420659479672</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-21888.91468297433</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-98.53055992311504</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>STO 80%_Good</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>STO 80%</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Good (84%)</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>87077.37098971011</v>
+      </c>
+      <c r="E43" t="n">
+        <v>96323.93929162416</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3603.025836312089</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4177.604507191839</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-83474.34515339801</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-95.862270765228</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>STO 80%_Recession</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>STO 80%</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>102772.2714616133</v>
+      </c>
+      <c r="E44" t="n">
+        <v>112584.6735536575</v>
+      </c>
+      <c r="F44" t="n">
+        <v>111.2573523754145</v>
+      </c>
+      <c r="G44" t="n">
+        <v>7247.800141901369</v>
+      </c>
+      <c r="H44" t="n">
+        <v>8295.25256923567</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-95524.4713197119</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-92.94770852212942</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>STO 80%_Crisis</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>STO 80%</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Crisis (41%)</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>117333.9544135958</v>
+      </c>
+      <c r="E45" t="n">
+        <v>127172.120514647</v>
+      </c>
+      <c r="F45" t="n">
+        <v>581.1362209019611</v>
+      </c>
+      <c r="G45" t="n">
+        <v>12151.32023905507</v>
+      </c>
+      <c r="H45" t="n">
+        <v>13418.30859009919</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-105182.6341745408</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-89.64381597826122</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>STO 80%_Extreme</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>STO 80%</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>119791.2097734209</v>
+      </c>
+      <c r="E46" t="n">
+        <v>129396.6425315579</v>
+      </c>
+      <c r="F46" t="n">
+        <v>760</v>
+      </c>
+      <c r="G46" t="n">
+        <v>12537.33276495305</v>
+      </c>
+      <c r="H46" t="n">
+        <v>13920.50366938026</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-107253.8770084678</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-89.53401273042755</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>STO 90%_Perfect</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>STO 90%</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Perfect (100%)</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>22318.40553299419</v>
+      </c>
+      <c r="E47" t="n">
+        <v>26326.38151942581</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>330.4235674494115</v>
+      </c>
+      <c r="H47" t="n">
+        <v>373.5868740170804</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-21987.98196554478</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-98.51950191082901</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>STO 90%_Good</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>STO 90%</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Good (84%)</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>87090.64556112424</v>
+      </c>
+      <c r="E48" t="n">
+        <v>96286.44871619518</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3698.84999557928</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4300.160558511076</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-83391.79556554496</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-95.75287337492148</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>STO 90%_Recession</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>STO 90%</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>102888.996522784</v>
+      </c>
+      <c r="E49" t="n">
+        <v>112861.2090796915</v>
+      </c>
+      <c r="F49" t="n">
+        <v>127.7296609478751</v>
+      </c>
+      <c r="G49" t="n">
+        <v>7484.340597716175</v>
+      </c>
+      <c r="H49" t="n">
+        <v>8516.111317928751</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-95404.65592506778</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-92.72581048444881</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>STO 90%_Crisis</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>STO 90%</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Crisis (41%)</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>116281.8403090782</v>
+      </c>
+      <c r="E50" t="n">
+        <v>126159.5748279626</v>
+      </c>
+      <c r="F50" t="n">
+        <v>571.9890826608167</v>
+      </c>
+      <c r="G50" t="n">
+        <v>12396.25421473539</v>
+      </c>
+      <c r="H50" t="n">
+        <v>13638.72319068442</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-103885.5860943429</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-89.33947538000257</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>STO 90%_Extreme</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>STO 90%</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>118155.1128195211</v>
+      </c>
+      <c r="E51" t="n">
+        <v>128044.8547130095</v>
+      </c>
+      <c r="F51" t="n">
+        <v>810</v>
+      </c>
+      <c r="G51" t="n">
+        <v>12878.85186589964</v>
+      </c>
+      <c r="H51" t="n">
+        <v>14339.34593724117</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-105276.2609536215</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-89.10004691411726</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>STO 100%_Perfect</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>STO 100%</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Perfect (100%)</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>22193.14004564247</v>
+      </c>
+      <c r="E52" t="n">
+        <v>25926.3768606268</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>326.0192379842784</v>
+      </c>
+      <c r="H52" t="n">
+        <v>370.3512731148012</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-21867.1208076582</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-98.53099093993106</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>STO 100%_Good</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>STO 100%</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Good (84%)</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>87511.00081914029</v>
+      </c>
+      <c r="E53" t="n">
+        <v>97206.18430808585</v>
+      </c>
+      <c r="F53" t="n">
+        <v>42.08592929843493</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3732.524003992524</v>
+      </c>
+      <c r="H53" t="n">
+        <v>4388.159886224114</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-83778.47681514776</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-95.73479451834112</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>STO 100%_Recession</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>STO 100%</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>102973.2160218199</v>
+      </c>
+      <c r="E54" t="n">
+        <v>113063.5702672666</v>
+      </c>
+      <c r="F54" t="n">
+        <v>110.8196650705977</v>
+      </c>
+      <c r="G54" t="n">
+        <v>7440.299277724936</v>
+      </c>
+      <c r="H54" t="n">
+        <v>8429.627370965549</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-95532.91674409494</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-92.77452956684547</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>STO 100%_Crisis</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>STO 100%</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Crisis (41%)</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>116921.6711202066</v>
+      </c>
+      <c r="E55" t="n">
+        <v>126923.7107058312</v>
+      </c>
+      <c r="F55" t="n">
+        <v>576.6457934633067</v>
+      </c>
+      <c r="G55" t="n">
+        <v>12416.94256150468</v>
+      </c>
+      <c r="H55" t="n">
+        <v>13626.68924967688</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-104504.7285587019</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-89.38011880728348</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>STO 100%_Extreme</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>STO 100%</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>118599.2484690619</v>
+      </c>
+      <c r="E56" t="n">
+        <v>128726.3404009201</v>
+      </c>
+      <c r="F56" t="n">
+        <v>798.784516587713</v>
+      </c>
+      <c r="G56" t="n">
+        <v>12901.22987940228</v>
+      </c>
+      <c r="H56" t="n">
+        <v>14293.46697292904</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-105698.0185896597</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-89.12199693848167</v>
       </c>
     </row>
   </sheetData>
@@ -2160,7 +4948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2169,32 +4957,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Market</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>STO_Ratio</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Trad_VaR95</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>STO_VaR95</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Reduction_Amount</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Reduction_Percent</t>
         </is>
@@ -2208,20 +4996,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>STO 15%</t>
+          <t>STO 10%</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>168196.9650074969</v>
+        <v>167794.0783499571</v>
       </c>
       <c r="D2" t="n">
-        <v>49647.02010339057</v>
+        <v>59271.42865686108</v>
       </c>
       <c r="E2" t="n">
-        <v>118549.9449041063</v>
+        <v>108522.649693096</v>
       </c>
       <c r="F2" t="n">
-        <v>70.4828085921897</v>
+        <v>64.67609033660739</v>
       </c>
     </row>
     <row r="3">
@@ -2232,20 +5020,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>STO 28%</t>
+          <t>STO 20%</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>168196.9650074969</v>
+        <v>167794.0783499571</v>
       </c>
       <c r="D3" t="n">
-        <v>27141.98536058238</v>
+        <v>40896.00557531467</v>
       </c>
       <c r="E3" t="n">
-        <v>141054.9796469145</v>
+        <v>126898.0727746424</v>
       </c>
       <c r="F3" t="n">
-        <v>83.86297555406388</v>
+        <v>75.62726529000592</v>
       </c>
     </row>
     <row r="4">
@@ -2256,308 +5044,1148 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>STO 40%</t>
+          <t>STO 30%</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>168196.9650074969</v>
+        <v>167794.0783499571</v>
       </c>
       <c r="D4" t="n">
-        <v>22442.76022757287</v>
+        <v>25042.51045448255</v>
       </c>
       <c r="E4" t="n">
-        <v>145754.204779924</v>
+        <v>142751.5678954746</v>
       </c>
       <c r="F4" t="n">
-        <v>86.65685779373453</v>
+        <v>85.07545039685309</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Good (84%)</t>
+          <t>Perfect (100%)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>STO 15%</t>
+          <t>STO 40%</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>233901.5779158411</v>
+        <v>167794.0783499571</v>
       </c>
       <c r="D5" t="n">
-        <v>172015.5431594522</v>
+        <v>22182.34956381647</v>
       </c>
       <c r="E5" t="n">
-        <v>61886.03475638898</v>
+        <v>145611.7287861406</v>
       </c>
       <c r="F5" t="n">
-        <v>26.45815188927707</v>
+        <v>86.78001644518575</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Good (84%)</t>
+          <t>Perfect (100%)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>STO 28%</t>
+          <t>STO 50%</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>233901.5779158411</v>
+        <v>167794.0783499571</v>
       </c>
       <c r="D6" t="n">
-        <v>148960.5276624352</v>
+        <v>22232.18919481748</v>
       </c>
       <c r="E6" t="n">
-        <v>84941.05025340596</v>
+        <v>145561.8891551396</v>
       </c>
       <c r="F6" t="n">
-        <v>36.31486842041235</v>
+        <v>86.75031359065648</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Good (84%)</t>
+          <t>Perfect (100%)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>STO 40%</t>
+          <t>STO 60%</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>233901.5779158411</v>
+        <v>167794.0783499571</v>
       </c>
       <c r="D7" t="n">
-        <v>126563.069173452</v>
+        <v>22201.05001000441</v>
       </c>
       <c r="E7" t="n">
-        <v>107338.5087423892</v>
+        <v>145593.0283399527</v>
       </c>
       <c r="F7" t="n">
-        <v>45.89045943974352</v>
+        <v>86.76887156667047</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Recession (65%)</t>
+          <t>Perfect (100%)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>STO 15%</t>
+          <t>STO 70%</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>245171.0488656423</v>
+        <v>167794.0783499571</v>
       </c>
       <c r="D8" t="n">
-        <v>184698.1851473628</v>
+        <v>22256.61639978209</v>
       </c>
       <c r="E8" t="n">
-        <v>60472.8637182794</v>
+        <v>145537.461950175</v>
       </c>
       <c r="F8" t="n">
-        <v>24.66558102927541</v>
+        <v>86.73575574379751</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Recession (65%)</t>
+          <t>Perfect (100%)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>STO 28%</t>
+          <t>STO 80%</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>245171.0488656423</v>
+        <v>167794.0783499571</v>
       </c>
       <c r="D9" t="n">
-        <v>161919.080554914</v>
+        <v>22215.35602766756</v>
       </c>
       <c r="E9" t="n">
-        <v>83251.9683107282</v>
+        <v>145578.7223222895</v>
       </c>
       <c r="F9" t="n">
-        <v>33.95668807386457</v>
+        <v>86.76034562951951</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Recession (65%)</t>
+          <t>Perfect (100%)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>STO 40%</t>
+          <t>STO 90%</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>245171.0488656423</v>
+        <v>167794.0783499571</v>
       </c>
       <c r="D10" t="n">
-        <v>141866.911641108</v>
+        <v>22318.40553299419</v>
       </c>
       <c r="E10" t="n">
-        <v>103304.1372245343</v>
+        <v>145475.6728169629</v>
       </c>
       <c r="F10" t="n">
-        <v>42.13553668041231</v>
+        <v>86.69893136130456</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Crisis (41%)</t>
+          <t>Perfect (100%)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>STO 15%</t>
+          <t>STO 100%</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>256999.9993728732</v>
+        <v>167794.0783499571</v>
       </c>
       <c r="D11" t="n">
-        <v>198384.415517818</v>
+        <v>22193.14004564247</v>
       </c>
       <c r="E11" t="n">
-        <v>58615.58385505524</v>
+        <v>145600.9383043146</v>
       </c>
       <c r="F11" t="n">
-        <v>22.80762023271904</v>
+        <v>86.77358565696478</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Crisis (41%)</t>
+          <t>Good (84%)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>STO 28%</t>
+          <t>STO 10%</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>256999.9993728732</v>
+        <v>233566.6841971613</v>
       </c>
       <c r="D12" t="n">
-        <v>176296.5980909674</v>
+        <v>180973.9673924469</v>
       </c>
       <c r="E12" t="n">
-        <v>80703.4012819058</v>
+        <v>52592.71680471444</v>
       </c>
       <c r="F12" t="n">
-        <v>31.40210174273805</v>
+        <v>22.51721686485013</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Crisis (41%)</t>
+          <t>Good (84%)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>STO 40%</t>
+          <t>STO 20%</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>256999.9993728732</v>
+        <v>233566.6841971613</v>
       </c>
       <c r="D13" t="n">
-        <v>157549.5113830346</v>
+        <v>162607.2605506366</v>
       </c>
       <c r="E13" t="n">
-        <v>99450.48798983867</v>
+        <v>70959.42364652469</v>
       </c>
       <c r="F13" t="n">
-        <v>38.69668802821633</v>
+        <v>30.38079848178412</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Extreme (15%)</t>
+          <t>Good (84%)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>STO 15%</t>
+          <t>STO 30%</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>257109.3957698636</v>
+        <v>233566.6841971613</v>
       </c>
       <c r="D14" t="n">
-        <v>198564.5707349211</v>
+        <v>144603.1365325163</v>
       </c>
       <c r="E14" t="n">
-        <v>58544.82503494248</v>
+        <v>88963.54766464501</v>
       </c>
       <c r="F14" t="n">
-        <v>22.77039501401398</v>
+        <v>38.08914270904663</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Extreme (15%)</t>
+          <t>Good (84%)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>STO 28%</t>
+          <t>STO 40%</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>257109.3957698636</v>
+        <v>233566.6841971613</v>
       </c>
       <c r="D15" t="n">
-        <v>178322.1049139856</v>
+        <v>127362.3669099195</v>
       </c>
       <c r="E15" t="n">
-        <v>78787.29085587792</v>
+        <v>106204.3172872418</v>
       </c>
       <c r="F15" t="n">
-        <v>30.64348956208499</v>
+        <v>45.47066190210211</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Good (84%)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>STO 50%</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>233566.6841971613</v>
+      </c>
+      <c r="D16" t="n">
+        <v>111289.0400180892</v>
+      </c>
+      <c r="E16" t="n">
+        <v>122277.6441790721</v>
+      </c>
+      <c r="F16" t="n">
+        <v>52.35234836653908</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Good (84%)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>STO 60%</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>233566.6841971613</v>
+      </c>
+      <c r="D17" t="n">
+        <v>98018.24866542779</v>
+      </c>
+      <c r="E17" t="n">
+        <v>135548.4355317335</v>
+      </c>
+      <c r="F17" t="n">
+        <v>58.03414814816339</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Good (84%)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>STO 70%</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>233566.6841971613</v>
+      </c>
+      <c r="D18" t="n">
+        <v>90497.94284797841</v>
+      </c>
+      <c r="E18" t="n">
+        <v>143068.7413491829</v>
+      </c>
+      <c r="F18" t="n">
+        <v>61.2539163455409</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Good (84%)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>STO 80%</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>233566.6841971613</v>
+      </c>
+      <c r="D19" t="n">
+        <v>87077.37098971011</v>
+      </c>
+      <c r="E19" t="n">
+        <v>146489.3132074512</v>
+      </c>
+      <c r="F19" t="n">
+        <v>62.71841110857864</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Good (84%)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>STO 90%</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>233566.6841971613</v>
+      </c>
+      <c r="D20" t="n">
+        <v>87090.64556112424</v>
+      </c>
+      <c r="E20" t="n">
+        <v>146476.038636037</v>
+      </c>
+      <c r="F20" t="n">
+        <v>62.71272769038919</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Good (84%)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>STO 100%</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>233566.6841971613</v>
+      </c>
+      <c r="D21" t="n">
+        <v>87511.00081914029</v>
+      </c>
+      <c r="E21" t="n">
+        <v>146055.683378021</v>
+      </c>
+      <c r="F21" t="n">
+        <v>62.53275542274284</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>STO 10%</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>245329.1740498592</v>
+      </c>
+      <c r="D22" t="n">
+        <v>192732.0306045096</v>
+      </c>
+      <c r="E22" t="n">
+        <v>52597.14344534962</v>
+      </c>
+      <c r="F22" t="n">
+        <v>21.43941651010495</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>STO 20%</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>245329.1740498592</v>
+      </c>
+      <c r="D23" t="n">
+        <v>174638.6696824649</v>
+      </c>
+      <c r="E23" t="n">
+        <v>70690.50436739434</v>
+      </c>
+      <c r="F23" t="n">
+        <v>28.81455279062229</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>STO 30%</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>245329.1740498592</v>
+      </c>
+      <c r="D24" t="n">
+        <v>157562.4111519972</v>
+      </c>
+      <c r="E24" t="n">
+        <v>87766.76289786201</v>
+      </c>
+      <c r="F24" t="n">
+        <v>35.77510226322484</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>STO 40%</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>245329.1740498592</v>
+      </c>
+      <c r="D25" t="n">
+        <v>140760.4028490229</v>
+      </c>
+      <c r="E25" t="n">
+        <v>104568.7712008363</v>
+      </c>
+      <c r="F25" t="n">
+        <v>42.62386306309593</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>STO 50%</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>245329.1740498592</v>
+      </c>
+      <c r="D26" t="n">
+        <v>126092.6208346788</v>
+      </c>
+      <c r="E26" t="n">
+        <v>119236.5532151805</v>
+      </c>
+      <c r="F26" t="n">
+        <v>48.60267992054933</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>STO 60%</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>245329.1740498592</v>
+      </c>
+      <c r="D27" t="n">
+        <v>114611.1644843527</v>
+      </c>
+      <c r="E27" t="n">
+        <v>130718.0095655066</v>
+      </c>
+      <c r="F27" t="n">
+        <v>53.28270071089884</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>STO 70%</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>245329.1740498592</v>
+      </c>
+      <c r="D28" t="n">
+        <v>106949.5867583067</v>
+      </c>
+      <c r="E28" t="n">
+        <v>138379.5872915525</v>
+      </c>
+      <c r="F28" t="n">
+        <v>56.40567936018449</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>STO 80%</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>245329.1740498592</v>
+      </c>
+      <c r="D29" t="n">
+        <v>102772.2714616133</v>
+      </c>
+      <c r="E29" t="n">
+        <v>142556.902588246</v>
+      </c>
+      <c r="F29" t="n">
+        <v>58.10841826715381</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>STO 90%</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>245329.1740498592</v>
+      </c>
+      <c r="D30" t="n">
+        <v>102888.996522784</v>
+      </c>
+      <c r="E30" t="n">
+        <v>142440.1775270753</v>
+      </c>
+      <c r="F30" t="n">
+        <v>58.06083931058546</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>STO 100%</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>245329.1740498592</v>
+      </c>
+      <c r="D31" t="n">
+        <v>102973.2160218199</v>
+      </c>
+      <c r="E31" t="n">
+        <v>142355.9580280394</v>
+      </c>
+      <c r="F31" t="n">
+        <v>58.02651012843169</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Crisis (41%)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>STO 10%</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>256313.7908175068</v>
+      </c>
+      <c r="D32" t="n">
+        <v>206515.2702517318</v>
+      </c>
+      <c r="E32" t="n">
+        <v>49798.52056577496</v>
+      </c>
+      <c r="F32" t="n">
+        <v>19.42873241698925</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Crisis (41%)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>STO 20%</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>256313.7908175068</v>
+      </c>
+      <c r="D33" t="n">
+        <v>189315.9191011487</v>
+      </c>
+      <c r="E33" t="n">
+        <v>66997.87171635806</v>
+      </c>
+      <c r="F33" t="n">
+        <v>26.13900387594047</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Crisis (41%)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>STO 30%</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>256313.7908175068</v>
+      </c>
+      <c r="D34" t="n">
+        <v>172945.8581367316</v>
+      </c>
+      <c r="E34" t="n">
+        <v>83367.93268077515</v>
+      </c>
+      <c r="F34" t="n">
+        <v>32.52573043958154</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Crisis (41%)</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>STO 40%</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>256313.7908175068</v>
+      </c>
+      <c r="D35" t="n">
+        <v>157785.2937650022</v>
+      </c>
+      <c r="E35" t="n">
+        <v>98528.49705250462</v>
+      </c>
+      <c r="F35" t="n">
+        <v>38.44057580290561</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Crisis (41%)</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>STO 50%</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>256313.7908175068</v>
+      </c>
+      <c r="D36" t="n">
+        <v>143520.6108115466</v>
+      </c>
+      <c r="E36" t="n">
+        <v>112793.1800059602</v>
+      </c>
+      <c r="F36" t="n">
+        <v>44.0058959161772</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Crisis (41%)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>STO 60%</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>256313.7908175068</v>
+      </c>
+      <c r="D37" t="n">
+        <v>131574.1039089632</v>
+      </c>
+      <c r="E37" t="n">
+        <v>124739.6869085435</v>
+      </c>
+      <c r="F37" t="n">
+        <v>48.66678710914823</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Crisis (41%)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>STO 70%</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>256313.7908175068</v>
+      </c>
+      <c r="D38" t="n">
+        <v>122972.7693829857</v>
+      </c>
+      <c r="E38" t="n">
+        <v>133341.0214345211</v>
+      </c>
+      <c r="F38" t="n">
+        <v>52.02257007289115</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Crisis (41%)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>STO 80%</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>256313.7908175068</v>
+      </c>
+      <c r="D39" t="n">
+        <v>117333.9544135958</v>
+      </c>
+      <c r="E39" t="n">
+        <v>138979.8364039109</v>
+      </c>
+      <c r="F39" t="n">
+        <v>54.22253557275948</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Crisis (41%)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>STO 90%</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>256313.7908175068</v>
+      </c>
+      <c r="D40" t="n">
+        <v>116281.8403090782</v>
+      </c>
+      <c r="E40" t="n">
+        <v>140031.9505084286</v>
+      </c>
+      <c r="F40" t="n">
+        <v>54.63301450218498</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Crisis (41%)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>STO 100%</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>256313.7908175068</v>
+      </c>
+      <c r="D41" t="n">
+        <v>116921.6711202066</v>
+      </c>
+      <c r="E41" t="n">
+        <v>139392.1196973002</v>
+      </c>
+      <c r="F41" t="n">
+        <v>54.38338657187047</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>Extreme (15%)</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>STO 10%</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>256877.076766068</v>
+      </c>
+      <c r="D42" t="n">
+        <v>207225.798139347</v>
+      </c>
+      <c r="E42" t="n">
+        <v>49651.27862672103</v>
+      </c>
+      <c r="F42" t="n">
+        <v>19.32880864723375</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>STO 20%</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>256877.076766068</v>
+      </c>
+      <c r="D43" t="n">
+        <v>190654.4956838812</v>
+      </c>
+      <c r="E43" t="n">
+        <v>66222.58108218684</v>
+      </c>
+      <c r="F43" t="n">
+        <v>25.77987180323381</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>STO 30%</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>256877.076766068</v>
+      </c>
+      <c r="D44" t="n">
+        <v>174859.7426209327</v>
+      </c>
+      <c r="E44" t="n">
+        <v>82017.3341451353</v>
+      </c>
+      <c r="F44" t="n">
+        <v>31.92863107042696</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>STO 40%</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>257109.3957698636</v>
-      </c>
-      <c r="D16" t="n">
-        <v>158258.1410885907</v>
-      </c>
-      <c r="E16" t="n">
-        <v>98851.25468127287</v>
-      </c>
-      <c r="F16" t="n">
-        <v>38.44715763314764</v>
+      <c r="C45" t="n">
+        <v>256877.076766068</v>
+      </c>
+      <c r="D45" t="n">
+        <v>160267.2774719277</v>
+      </c>
+      <c r="E45" t="n">
+        <v>96609.79929414028</v>
+      </c>
+      <c r="F45" t="n">
+        <v>37.60935016483413</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>STO 50%</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>256877.076766068</v>
+      </c>
+      <c r="D46" t="n">
+        <v>146975.0169315495</v>
+      </c>
+      <c r="E46" t="n">
+        <v>109902.0598345185</v>
+      </c>
+      <c r="F46" t="n">
+        <v>42.78391097334222</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>STO 60%</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>256877.076766068</v>
+      </c>
+      <c r="D47" t="n">
+        <v>135379.3691644132</v>
+      </c>
+      <c r="E47" t="n">
+        <v>121497.7076016548</v>
+      </c>
+      <c r="F47" t="n">
+        <v>47.29799526343097</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>STO 70%</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>256877.076766068</v>
+      </c>
+      <c r="D48" t="n">
+        <v>126365.6682390267</v>
+      </c>
+      <c r="E48" t="n">
+        <v>130511.4085270413</v>
+      </c>
+      <c r="F48" t="n">
+        <v>50.80695022308083</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>STO 80%</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>256877.076766068</v>
+      </c>
+      <c r="D49" t="n">
+        <v>119791.2097734209</v>
+      </c>
+      <c r="E49" t="n">
+        <v>137085.8669926471</v>
+      </c>
+      <c r="F49" t="n">
+        <v>53.36632942046753</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>STO 90%</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>256877.076766068</v>
+      </c>
+      <c r="D50" t="n">
+        <v>118155.1128195211</v>
+      </c>
+      <c r="E50" t="n">
+        <v>138721.9639465469</v>
+      </c>
+      <c r="F50" t="n">
+        <v>54.00324765953241</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>STO 100%</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>256877.076766068</v>
+      </c>
+      <c r="D51" t="n">
+        <v>118599.2484690619</v>
+      </c>
+      <c r="E51" t="n">
+        <v>138277.8282970061</v>
+      </c>
+      <c r="F51" t="n">
+        <v>53.83034953443219</v>
       </c>
     </row>
   </sheetData>
@@ -2571,7 +6199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2580,42 +6208,42 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Scenario</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>STO_Ratio</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Market</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Sales_Rate</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Retail_VaR95_Rate</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Retail_ES95_Rate</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>VaR_ES_Gap</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Loss_Probability</t>
         </is>
@@ -2624,12 +6252,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>STO 15%_Perfect</t>
+          <t>STO 10%_Perfect</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>STO 15%</t>
+          <t>STO 10%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2638,30 +6266,30 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9826719646030546</v>
+        <v>0.9827387580027956</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.083575882791833e-07</v>
+        <v>4.168439603160236e-07</v>
       </c>
       <c r="G2" t="n">
-        <v>2.083575882791833e-07</v>
+        <v>4.168439603160236e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0004</v>
+        <v>0.00042</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>STO 15%_Good</t>
+          <t>STO 10%_Good</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>STO 15%</t>
+          <t>STO 10%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2670,30 +6298,30 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8206754309837626</v>
+        <v>0.8215322906028903</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0008657109545889521</v>
+        <v>0.001123322544791468</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0008657109545889521</v>
+        <v>0.001123322544791468</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0454</v>
+        <v>0.04948</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>STO 15%_Recession</t>
+          <t>STO 10%_Recession</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>STO 15%</t>
+          <t>STO 10%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2702,30 +6330,30 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.646859056449052</v>
+        <v>0.6464149851446971</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003574106644893613</v>
+        <v>0.009999999999999894</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0285730738930953</v>
+        <v>0.03222454883741165</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02499896724820169</v>
+        <v>0.02222454883741176</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0522</v>
+        <v>0.05774</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>STO 15%_Crisis</t>
+          <t>STO 10%_Crisis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>STO 15%</t>
+          <t>STO 10%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2734,30 +6362,30 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.4164989217822569</v>
+        <v>0.4174197826204125</v>
       </c>
       <c r="E5" t="n">
-        <v>0.009999999999999929</v>
+        <v>0.009999999999999894</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02925605137312428</v>
+        <v>0.02743583957194232</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01925605137312435</v>
+        <v>0.01743583957194243</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0776</v>
+        <v>0.07696</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>STO 15%_Extreme</t>
+          <t>STO 10%_Extreme</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>STO 15%</t>
+          <t>STO 10%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2766,30 +6394,30 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.3988338551237502</v>
+        <v>0.40043935622378</v>
       </c>
       <c r="E6" t="n">
-        <v>0.009999999999999929</v>
+        <v>0.009999999999999894</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02329810873047631</v>
+        <v>0.02650253046694018</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01329810873047638</v>
+        <v>0.01650253046694029</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0868</v>
+        <v>0.08416</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>STO 28%_Perfect</t>
+          <t>STO 20%_Perfect</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>STO 28%</t>
+          <t>STO 20%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2798,30 +6426,30 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.982444186287003</v>
+        <v>0.9826116914835882</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.610775915059818e-07</v>
+        <v>9.904967591848685e-08</v>
       </c>
       <c r="G7" t="n">
-        <v>1.610775915059818e-07</v>
+        <v>9.904967591848685e-08</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008</v>
+        <v>0.00038</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>STO 28%_Good</t>
+          <t>STO 20%_Good</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>STO 28%</t>
+          <t>STO 20%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2830,30 +6458,30 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.818988182004031</v>
+        <v>0.8203644860177787</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0002251929900182914</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01519392366619645</v>
+        <v>0.0008554807229606969</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01496873067617816</v>
+        <v>0.0008554807229606969</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0506</v>
+        <v>0.04862</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>STO 28%_Recession</t>
+          <t>STO 20%_Recession</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>STO 28%</t>
+          <t>STO 20%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2862,30 +6490,30 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.6424337212450967</v>
+        <v>0.6448107669284928</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003638681865645757</v>
+        <v>0.006747746041263564</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02541833295776177</v>
+        <v>0.0304693341811362</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02177965109211601</v>
+        <v>0.02372158813987263</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0534</v>
+        <v>0.05546</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>STO 28%_Crisis</t>
+          <t>STO 20%_Crisis</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>STO 28%</t>
+          <t>STO 20%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2894,30 +6522,30 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.4137511290085212</v>
+        <v>0.4162340699210331</v>
       </c>
       <c r="E10" t="n">
-        <v>0.009999999999999962</v>
+        <v>0.009999999999999948</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02555791163659549</v>
+        <v>0.02851716648952397</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01555791163659553</v>
+        <v>0.01851716648952403</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07580000000000001</v>
+        <v>0.07414</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>STO 28%_Extreme</t>
+          <t>STO 20%_Extreme</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>STO 28%</t>
+          <t>STO 20%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2926,30 +6554,30 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.3978056659871501</v>
+        <v>0.3997819587611955</v>
       </c>
       <c r="E11" t="n">
-        <v>0.009999999999999962</v>
+        <v>0.009999999999999948</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02977622793618</v>
+        <v>0.02603283119355758</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01977622793618004</v>
+        <v>0.01603283119355763</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08262</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>STO 40%_Perfect</t>
+          <t>STO 30%_Perfect</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>STO 40%</t>
+          <t>STO 30%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2958,30 +6586,30 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.9822810297230508</v>
+        <v>0.9823998781680922</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2.115853029806395e-07</v>
+        <v>8.637751264280222e-08</v>
       </c>
       <c r="G12" t="n">
-        <v>2.115853029806395e-07</v>
+        <v>8.637751264280222e-08</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>STO 40%_Good</t>
+          <t>STO 30%_Good</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>STO 40%</t>
+          <t>STO 30%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2990,30 +6618,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.8180918887281939</v>
+        <v>0.8193087133875201</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0004522596769755218</v>
+        <v>0.0006981603743953286</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0004522596769755218</v>
+        <v>0.0006981603743953286</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0484</v>
+        <v>0.0498</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>STO 40%_Recession</t>
+          <t>STO 30%_Recession</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>STO 40%</t>
+          <t>STO 30%</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3022,30 +6650,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.6405732997727202</v>
+        <v>0.6427598998968054</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001818000672455269</v>
+        <v>0.005076662141898321</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02087837572585946</v>
+        <v>0.02600627866925671</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0190603750534042</v>
+        <v>0.02092961652735839</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0522</v>
+        <v>0.05678</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>STO 40%_Crisis</t>
+          <t>STO 30%_Crisis</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>STO 40%</t>
+          <t>STO 30%</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3054,51 +6682,1171 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.4132510512851231</v>
+        <v>0.4149351865911214</v>
       </c>
       <c r="E15" t="n">
-        <v>0.009999999999999972</v>
+        <v>0.009999999999999966</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02681299252702149</v>
+        <v>0.02780314690171378</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01681299252702152</v>
+        <v>0.01780314690171382</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07539999999999999</v>
+        <v>0.07718</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>STO 30%_Extreme</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>STO 30%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.3976987158126158</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.009999999999999966</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.02664686514117624</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.01664686514117628</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.08309999999999999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>STO 40%_Perfect</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>STO 40%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Perfect (100%)</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9822964280830577</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.316691068511743e-07</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.316691068511743e-07</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.00056</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>STO 40%_Good</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>STO 40%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Good (84%)</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8179252076687388</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0005420698599546758</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0005420698599546758</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.04996</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>STO 40%_Recession</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>STO 40%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.6406059384893904</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.003611889829931812</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.02284161275671639</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01922972292678458</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0559</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>STO 40%_Crisis</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>STO 40%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Crisis (41%)</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.4133719277985113</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.009999999999999972</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.02800195033456983</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01800195033456985</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.07552</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>STO 40%_Extreme</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>STO 40%</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Extreme (15%)</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>0.39566075613007</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D21" t="n">
+        <v>0.395758428480666</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.009999999999999972</v>
       </c>
-      <c r="F16" t="n">
-        <v>0.02773341239515153</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.01773341239515156</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.0848</v>
+      <c r="F21" t="n">
+        <v>0.02608599224900395</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.01608599224900398</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.08291999999999999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>STO 50%_Perfect</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>STO 50%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Perfect (100%)</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9823042160039729</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>9.546981833382252e-08</v>
+      </c>
+      <c r="G22" t="n">
+        <v>9.546981833382252e-08</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.00058</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>STO 50%_Good</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>STO 50%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Good (84%)</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.816552423855939</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0004517622083842146</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0004517622083842146</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.04936</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>STO 50%_Recession</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>STO 50%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.6383503733048143</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.002445667628871794</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0190244585150701</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.01657879088619831</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.05442</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>STO 50%_Crisis</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>STO 50%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Crisis (41%)</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.4117494483164099</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.009999999999999979</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.02665460170830727</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01665460170830729</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.07507999999999999</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>STO 50%_Extreme</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>STO 50%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.3928587121474819</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.009999999999999979</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.02605212975932222</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.01605212975932224</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.08318</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>STO 60%_Perfect</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>STO 60%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Perfect (100%)</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9823003113746814</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>6.445494113619784e-08</v>
+      </c>
+      <c r="G27" t="n">
+        <v>6.445494113619784e-08</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.00042</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>STO 60%_Good</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>STO 60%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Good (84%)</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.8146707464080601</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0001686174436605307</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.007661778210130689</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.007493160766470159</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.05092</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>STO 60%_Recession</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>STO 60%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.636023154145945</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.002582866780949531</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.01823412219913898</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01565125541818945</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.05522</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>STO 60%_Crisis</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>STO 60%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Crisis (41%)</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.4100812208398443</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.009999999999999983</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.02787130769025539</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0178713076902554</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.07518</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>STO 60%_Extreme</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>STO 60%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.3915008734621193</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.009999999999999983</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.02680295156451683</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.01680295156451685</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.08272</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>STO 70%_Perfect</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>STO 70%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Perfect (100%)</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.9822962747789357</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5.031997736436335e-08</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5.031997736436335e-08</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.00058</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>STO 70%_Good</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>STO 70%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Good (84%)</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8132523225048793</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.283777105676058e-05</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.007035882796587818</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.007023045025531057</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0501</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>STO 70%_Recession</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>STO 70%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.6333444350172656</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.001688889525773864</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.01502285435767735</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01333396483190348</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.05336</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>STO 70%_Crisis</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>STO 70%</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Crisis (41%)</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.4081732376561001</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.008340692792541324</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.02584878665312741</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.01750809386058609</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.07328</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>STO 70%_Extreme</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>STO 70%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.3888225958568781</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.009999999999999985</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.02642305678181485</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01642305678181486</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.08373999999999999</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>STO 80%_Perfect</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>STO 80%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Perfect (100%)</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.9823085573356055</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5.729529948129348e-08</v>
+      </c>
+      <c r="G37" t="n">
+        <v>5.729529948129348e-08</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.00062</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>STO 80%_Good</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>STO 80%</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Good (84%)</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.8118054407757335</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0003041299173619978</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0003041299173619978</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.04926</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>STO 80%_Recession</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>STO 80%</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.6311180811697442</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.001463912531255452</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.01374754027850064</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.01228362774724519</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.05342</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>STO 80%_Crisis</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>STO 80%</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Crisis (41%)</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.4061554177879393</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.007646529222394215</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.02393377515488033</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.01628724593248611</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.07532</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>STO 80%_Extreme</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>STO 80%</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.3863281817383744</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.009999999999999986</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.02636277817980344</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.01636277817980346</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.08252</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>STO 90%_Perfect</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>STO 90%</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Perfect (100%)</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.9822842521349827</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3.169891553684422e-08</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3.169891553684422e-08</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0004</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>STO 90%_Good</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>STO 90%</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Good (84%)</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.810933824589541</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0002818094190528012</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0002818094190528012</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.04942</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>STO 90%_Recession</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>STO 90%</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0.6287597988077379</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.001493914163133041</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.01256095915155896</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.01106704498842592</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.05342</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>STO 90%_Crisis</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>STO 90%</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Crisis (41%)</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.404052884385442</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.006689930791354573</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.02205804076443678</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.01536810997308221</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.07584</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>STO 90%_Extreme</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>STO 90%</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.3829876268000175</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.009473684210526304</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0265610113939098</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0170873271833835</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.08272</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>STO 100%_Perfect</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>STO 100%</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Perfect (100%)</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.9822975098150272</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2.499233058783741e-08</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2.499233058783741e-08</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0004</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>STO 100%_Good</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>STO 100%</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Good (84%)</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0.810857542548077</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0004430097820887882</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.005915312596683046</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.005472302814594258</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0535</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>STO 100%_Recession</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>STO 100%</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Recession (65%)</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0.6286366996481322</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.001166522790216816</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.01084450805516112</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.009677985264944299</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.05296</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>STO 100%_Crisis</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>STO 100%</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Crisis (41%)</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0.4038805819190628</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.006069955720666379</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.01971703826148388</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0136470825408175</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.07634000000000001</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>STO 100%_Extreme</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>STO 100%</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Extreme (15%)</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0.382760901984212</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.008408258069344339</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.02368226104552376</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.01527400297617942</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.08162</v>
       </c>
     </row>
   </sheetData>
